--- a/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.80234106502884</v>
+        <v>14.80234106502881</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.32160065581847</v>
+        <v>2.321600655818424</v>
       </c>
       <c r="E2">
-        <v>5.750445095322589</v>
+        <v>5.750445095322643</v>
       </c>
       <c r="F2">
-        <v>35.81147822602124</v>
+        <v>35.81147822602129</v>
       </c>
       <c r="G2">
-        <v>27.56704509332759</v>
+        <v>27.56704509332762</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>41.82536011343741</v>
+        <v>41.82536011343738</v>
       </c>
       <c r="K2">
-        <v>32.29273057348971</v>
+        <v>32.29273057348967</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.74260381245382</v>
+        <v>13.74260381245377</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.226555493489837</v>
+        <v>2.226555493489883</v>
       </c>
       <c r="E3">
-        <v>5.902355441699725</v>
+        <v>5.902355441699958</v>
       </c>
       <c r="F3">
-        <v>33.07881957696826</v>
+        <v>33.07881957696841</v>
       </c>
       <c r="G3">
-        <v>25.42080357534364</v>
+        <v>25.42080357534378</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>38.94054362031606</v>
+        <v>38.94054362031596</v>
       </c>
       <c r="K3">
-        <v>30.00511389124582</v>
+        <v>30.0051138912458</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.05982457917222</v>
+        <v>13.05982457917219</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.280041665827122</v>
+        <v>2.280041665827123</v>
       </c>
       <c r="E4">
-        <v>5.999992270371852</v>
+        <v>5.999992270371935</v>
       </c>
       <c r="F4">
-        <v>31.54161356293998</v>
+        <v>31.5416135629399</v>
       </c>
       <c r="G4">
-        <v>24.30754876574449</v>
+        <v>24.30754876574444</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>37.08406952502409</v>
+        <v>37.08406952502412</v>
       </c>
       <c r="K4">
-        <v>28.53661445766042</v>
+        <v>28.53661445766038</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.77333845796765</v>
+        <v>12.77333845796759</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.305234287168339</v>
+        <v>2.305234287168376</v>
       </c>
       <c r="E5">
-        <v>6.040891804025426</v>
+        <v>6.040891804025499</v>
       </c>
       <c r="F5">
-        <v>30.91339949553109</v>
+        <v>30.91339949553105</v>
       </c>
       <c r="G5">
-        <v>23.85554205223549</v>
+        <v>23.85554205223546</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>36.30561186136156</v>
+        <v>36.30561186136152</v>
       </c>
       <c r="K5">
-        <v>27.92163034015409</v>
+        <v>27.9216303401541</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.72526463490105</v>
+        <v>12.72526463490103</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.309604487734287</v>
+        <v>2.309604487734305</v>
       </c>
       <c r="E6">
         <v>6.047750714025183</v>
@@ -579,7 +579,7 @@
         <v>30.80898095803231</v>
       </c>
       <c r="G6">
-        <v>23.78059075036416</v>
+        <v>23.78059075036414</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>36.17501149080678</v>
+        <v>36.17501149080684</v>
       </c>
       <c r="K6">
-        <v>27.8184993021147</v>
+        <v>27.81849930211478</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.05599454531449</v>
+        <v>13.05599454531452</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.280368503983155</v>
+        <v>2.280368503983143</v>
       </c>
       <c r="E7">
-        <v>6.000539335065151</v>
+        <v>6.000539335065079</v>
       </c>
       <c r="F7">
-        <v>31.5331483494372</v>
+        <v>31.53314834943722</v>
       </c>
       <c r="G7">
-        <v>24.30144598560059</v>
+        <v>24.3014459856006</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>37.07366038806719</v>
       </c>
       <c r="K7">
-        <v>28.52838822115825</v>
+        <v>28.52838822115823</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -646,16 +646,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.231628190444309</v>
+        <v>2.231628190444348</v>
       </c>
       <c r="E8">
-        <v>5.801926937163563</v>
+        <v>5.80192693716348</v>
       </c>
       <c r="F8">
-        <v>34.87254934189909</v>
+        <v>34.87254934189919</v>
       </c>
       <c r="G8">
-        <v>26.8235300653247</v>
+        <v>26.82353006532477</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>40.84802688043911</v>
+        <v>40.84802688043908</v>
       </c>
       <c r="K8">
-        <v>31.51690593939779</v>
+        <v>31.51690593939776</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.91876902667358</v>
+        <v>16.91876902667361</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.888358083234883</v>
+        <v>2.888358083234884</v>
       </c>
       <c r="E9">
-        <v>5.446413262552591</v>
+        <v>5.446413262552644</v>
       </c>
       <c r="F9">
         <v>41.57591019062168</v>
       </c>
       <c r="G9">
-        <v>32.12997117873813</v>
+        <v>32.12997117873812</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>47.60076248588884</v>
+        <v>47.60076248588897</v>
       </c>
       <c r="K9">
-        <v>36.89626021509306</v>
+        <v>36.89626021509314</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.60234081497403</v>
+        <v>18.60234081497404</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.386510856979645</v>
+        <v>3.386510856979688</v>
       </c>
       <c r="E10">
-        <v>5.204995052769384</v>
+        <v>5.204995052769418</v>
       </c>
       <c r="F10">
-        <v>46.43839249784183</v>
+        <v>46.43839249784182</v>
       </c>
       <c r="G10">
-        <v>35.97980853729628</v>
+        <v>35.97980853729629</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>52.21204855987699</v>
+        <v>52.21204855987701</v>
       </c>
       <c r="K10">
-        <v>40.59824521429714</v>
+        <v>40.59824521429717</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.34297772225418</v>
+        <v>19.34297772225423</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.620195754398297</v>
+        <v>3.620195754398293</v>
       </c>
       <c r="E11">
-        <v>5.099245343136097</v>
+        <v>5.099245343136158</v>
       </c>
       <c r="F11">
-        <v>48.65781476715043</v>
+        <v>48.65781476715048</v>
       </c>
       <c r="G11">
-        <v>37.73806761576424</v>
+        <v>37.73806761576427</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>54.24687141404439</v>
+        <v>54.24687141404436</v>
       </c>
       <c r="K11">
-        <v>42.24029414373923</v>
+        <v>42.24029414373914</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.62022975546877</v>
+        <v>19.62022975546879</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.710106207765675</v>
+        <v>3.710106207765609</v>
       </c>
       <c r="E12">
-        <v>5.059766108780399</v>
+        <v>5.059766108780479</v>
       </c>
       <c r="F12">
-        <v>49.50173344808646</v>
+        <v>49.50173344808655</v>
       </c>
       <c r="G12">
-        <v>38.40686257945832</v>
+        <v>38.40686257945836</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>55.00974745347493</v>
+        <v>55.00974745347504</v>
       </c>
       <c r="K12">
-        <v>42.85735733736198</v>
+        <v>42.85735733736203</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.56065379579384</v>
+        <v>19.56065379579385</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>3.690671763208342</v>
       </c>
       <c r="E13">
-        <v>5.068243852137744</v>
+        <v>5.068243852137709</v>
       </c>
       <c r="F13">
-        <v>49.31978062391965</v>
+        <v>49.31978062391953</v>
       </c>
       <c r="G13">
-        <v>38.26265568931693</v>
+        <v>38.26265568931684</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>54.84576414703712</v>
+        <v>54.84576414703719</v>
       </c>
       <c r="K13">
-        <v>42.7246489313579</v>
+        <v>42.72464893135798</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.36584906844849</v>
+        <v>19.36584906844844</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>3.627561634891568</v>
       </c>
       <c r="E14">
-        <v>5.095986146851418</v>
+        <v>5.095986146851558</v>
       </c>
       <c r="F14">
-        <v>48.7271587616567</v>
+        <v>48.72715876165666</v>
       </c>
       <c r="G14">
-        <v>37.79301677956718</v>
+        <v>37.79301677956715</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>54.30977834977594</v>
+        <v>54.30977834977605</v>
       </c>
       <c r="K14">
-        <v>42.29114692355405</v>
+        <v>42.29114692355407</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.24612122055235</v>
+        <v>19.24612122055242</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.589103314515657</v>
+        <v>3.589103314515591</v>
       </c>
       <c r="E15">
-        <v>5.113052155370444</v>
+        <v>5.113052155370408</v>
       </c>
       <c r="F15">
-        <v>48.36469536736105</v>
+        <v>48.36469536736136</v>
       </c>
       <c r="G15">
-        <v>37.50580541723815</v>
+        <v>37.50580541723836</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>53.98051918677251</v>
+        <v>53.98051918677263</v>
       </c>
       <c r="K15">
-        <v>42.02503993003839</v>
+        <v>42.0250399300385</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.55346451384405</v>
+        <v>18.55346451384403</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.371413481017568</v>
+        <v>3.37141348101768</v>
       </c>
       <c r="E16">
-        <v>5.211986378688523</v>
+        <v>5.211986378688651</v>
       </c>
       <c r="F16">
-        <v>46.29368866995323</v>
+        <v>46.2936886699534</v>
       </c>
       <c r="G16">
-        <v>35.86519967326189</v>
+        <v>35.86519967326204</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>52.07791353782226</v>
+        <v>52.0779135378224</v>
       </c>
       <c r="K16">
-        <v>40.49019250579408</v>
+        <v>40.49019250579421</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.12235149044487</v>
+        <v>18.12235149044486</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.239935806430631</v>
+        <v>3.239935806430621</v>
       </c>
       <c r="E17">
-        <v>5.273709285408249</v>
+        <v>5.273709285408193</v>
       </c>
       <c r="F17">
-        <v>45.02661482192526</v>
+        <v>45.02661482192528</v>
       </c>
       <c r="G17">
         <v>34.86177353291556</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>50.89550911539445</v>
+        <v>50.89550911539447</v>
       </c>
       <c r="K17">
-        <v>39.53869051563798</v>
+        <v>39.53869051563802</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.87198284025916</v>
+        <v>17.87198284025918</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.164950016391964</v>
+        <v>3.164950016392015</v>
       </c>
       <c r="E18">
         <v>5.309595321751496</v>
       </c>
       <c r="F18">
-        <v>44.29835206548518</v>
+        <v>44.29835206548496</v>
       </c>
       <c r="G18">
-        <v>34.28513799162045</v>
+        <v>34.2851379916203</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>50.20940571594769</v>
+        <v>50.20940571594774</v>
       </c>
       <c r="K18">
-        <v>38.98736628286684</v>
+        <v>38.98736628286683</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.78678808630453</v>
+        <v>17.78678808630455</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.139659758721328</v>
+        <v>3.139659758721443</v>
       </c>
       <c r="E19">
-        <v>5.321812335325473</v>
+        <v>5.321812335325411</v>
       </c>
       <c r="F19">
-        <v>44.05180194524714</v>
+        <v>44.05180194524709</v>
       </c>
       <c r="G19">
-        <v>34.08993427279724</v>
+        <v>34.08993427279722</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>49.97603260336027</v>
+        <v>49.97603260336032</v>
       </c>
       <c r="K19">
-        <v>38.7999676014365</v>
+        <v>38.79996760143654</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.16849024363887</v>
+        <v>18.16849024363885</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.253863330641708</v>
+        <v>3.253863330641722</v>
       </c>
       <c r="E20">
-        <v>5.267099099757886</v>
+        <v>5.267099099757757</v>
       </c>
       <c r="F20">
         <v>45.16142734589747</v>
       </c>
       <c r="G20">
-        <v>34.96852459910675</v>
+        <v>34.96852459910676</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>51.02199168374442</v>
+        <v>51.02199168374437</v>
       </c>
       <c r="K20">
-        <v>39.64038973715493</v>
+        <v>39.640389737155</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.42315132874343</v>
+        <v>19.42315132874341</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>3.646056385254558</v>
       </c>
       <c r="E21">
-        <v>5.087822378765523</v>
+        <v>5.087822378765418</v>
       </c>
       <c r="F21">
-        <v>48.90110950356458</v>
+        <v>48.90110950356477</v>
       </c>
       <c r="G21">
-        <v>37.93086175685845</v>
+        <v>37.93086175685858</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>54.46740593449996</v>
+        <v>54.46740593449992</v>
       </c>
       <c r="K21">
-        <v>42.41859395093947</v>
+        <v>42.41859395093952</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.2246905685889</v>
+        <v>20.22469056858892</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.910915371005617</v>
+        <v>3.910915371005677</v>
       </c>
       <c r="E22">
-        <v>4.973941066791475</v>
+        <v>4.973941066791488</v>
       </c>
       <c r="F22">
-        <v>51.36707745972718</v>
+        <v>51.36707745972699</v>
       </c>
       <c r="G22">
-        <v>39.88563221422752</v>
+        <v>39.88563221422737</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>56.67537897677887</v>
       </c>
       <c r="K22">
-        <v>44.20748812612028</v>
+        <v>44.2074881261202</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.7984205152307</v>
+        <v>19.79842051523065</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.768612755785766</v>
+        <v>3.768612755785727</v>
       </c>
       <c r="E23">
-        <v>5.034428476455305</v>
+        <v>5.034428476455376</v>
       </c>
       <c r="F23">
-        <v>50.04796577407663</v>
+        <v>50.04796577407674</v>
       </c>
       <c r="G23">
-        <v>38.83981897414972</v>
+        <v>38.83981897414981</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>55.50040864934422</v>
+        <v>55.50040864934429</v>
       </c>
       <c r="K23">
-        <v>43.25466543707626</v>
+        <v>43.25466543707635</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.14763878045962</v>
+        <v>18.14763878045967</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.247564849310134</v>
+        <v>3.24756484931007</v>
       </c>
       <c r="E24">
-        <v>5.270086315111048</v>
+        <v>5.270086315111009</v>
       </c>
       <c r="F24">
-        <v>45.1004781688756</v>
+        <v>45.10047816887565</v>
       </c>
       <c r="G24">
-        <v>34.92026181335739</v>
+        <v>34.92026181335746</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>50.9648287098173</v>
+        <v>50.96482870981739</v>
       </c>
       <c r="K24">
-        <v>39.59442498471579</v>
+        <v>39.59442498471581</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.27404881046891</v>
+        <v>16.2740488104689</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.708984620831025</v>
+        <v>2.708984620831046</v>
       </c>
       <c r="E25">
-        <v>5.53904697852899</v>
+        <v>5.539046978529035</v>
       </c>
       <c r="F25">
-        <v>39.7791023514237</v>
+        <v>39.77910235142389</v>
       </c>
       <c r="G25">
-        <v>30.70778632484836</v>
+        <v>30.70778632484851</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>45.83920474214679</v>
+        <v>45.8392047421468</v>
       </c>
       <c r="K25">
         <v>35.48850825236929</v>

--- a/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.80234106502881</v>
+        <v>14.80234106502884</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.321600655818424</v>
+        <v>2.32160065581847</v>
       </c>
       <c r="E2">
-        <v>5.750445095322643</v>
+        <v>5.750445095322589</v>
       </c>
       <c r="F2">
-        <v>35.81147822602129</v>
+        <v>35.81147822602124</v>
       </c>
       <c r="G2">
-        <v>27.56704509332762</v>
+        <v>27.56704509332759</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>41.82536011343738</v>
+        <v>41.82536011343741</v>
       </c>
       <c r="K2">
-        <v>32.29273057348967</v>
+        <v>32.29273057348971</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.74260381245377</v>
+        <v>13.74260381245382</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.226555493489883</v>
+        <v>2.226555493489837</v>
       </c>
       <c r="E3">
-        <v>5.902355441699958</v>
+        <v>5.902355441699725</v>
       </c>
       <c r="F3">
-        <v>33.07881957696841</v>
+        <v>33.07881957696826</v>
       </c>
       <c r="G3">
-        <v>25.42080357534378</v>
+        <v>25.42080357534364</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>38.94054362031596</v>
+        <v>38.94054362031606</v>
       </c>
       <c r="K3">
-        <v>30.0051138912458</v>
+        <v>30.00511389124582</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.05982457917219</v>
+        <v>13.05982457917222</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.280041665827123</v>
+        <v>2.280041665827122</v>
       </c>
       <c r="E4">
-        <v>5.999992270371935</v>
+        <v>5.999992270371852</v>
       </c>
       <c r="F4">
-        <v>31.5416135629399</v>
+        <v>31.54161356293998</v>
       </c>
       <c r="G4">
-        <v>24.30754876574444</v>
+        <v>24.30754876574449</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>37.08406952502412</v>
+        <v>37.08406952502409</v>
       </c>
       <c r="K4">
-        <v>28.53661445766038</v>
+        <v>28.53661445766042</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.77333845796759</v>
+        <v>12.77333845796765</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.305234287168376</v>
+        <v>2.305234287168339</v>
       </c>
       <c r="E5">
-        <v>6.040891804025499</v>
+        <v>6.040891804025426</v>
       </c>
       <c r="F5">
-        <v>30.91339949553105</v>
+        <v>30.91339949553109</v>
       </c>
       <c r="G5">
-        <v>23.85554205223546</v>
+        <v>23.85554205223549</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>36.30561186136152</v>
+        <v>36.30561186136156</v>
       </c>
       <c r="K5">
-        <v>27.9216303401541</v>
+        <v>27.92163034015409</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.72526463490103</v>
+        <v>12.72526463490105</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.309604487734305</v>
+        <v>2.309604487734287</v>
       </c>
       <c r="E6">
         <v>6.047750714025183</v>
@@ -579,7 +579,7 @@
         <v>30.80898095803231</v>
       </c>
       <c r="G6">
-        <v>23.78059075036414</v>
+        <v>23.78059075036416</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>36.17501149080684</v>
+        <v>36.17501149080678</v>
       </c>
       <c r="K6">
-        <v>27.81849930211478</v>
+        <v>27.8184993021147</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.05599454531452</v>
+        <v>13.05599454531449</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.280368503983143</v>
+        <v>2.280368503983155</v>
       </c>
       <c r="E7">
-        <v>6.000539335065079</v>
+        <v>6.000539335065151</v>
       </c>
       <c r="F7">
-        <v>31.53314834943722</v>
+        <v>31.5331483494372</v>
       </c>
       <c r="G7">
-        <v>24.3014459856006</v>
+        <v>24.30144598560059</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>37.07366038806719</v>
       </c>
       <c r="K7">
-        <v>28.52838822115823</v>
+        <v>28.52838822115825</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -646,16 +646,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.231628190444348</v>
+        <v>2.231628190444309</v>
       </c>
       <c r="E8">
-        <v>5.80192693716348</v>
+        <v>5.801926937163563</v>
       </c>
       <c r="F8">
-        <v>34.87254934189919</v>
+        <v>34.87254934189909</v>
       </c>
       <c r="G8">
-        <v>26.82353006532477</v>
+        <v>26.8235300653247</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>40.84802688043908</v>
+        <v>40.84802688043911</v>
       </c>
       <c r="K8">
-        <v>31.51690593939776</v>
+        <v>31.51690593939779</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.91876902667361</v>
+        <v>16.91876902667358</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.888358083234884</v>
+        <v>2.888358083234883</v>
       </c>
       <c r="E9">
-        <v>5.446413262552644</v>
+        <v>5.446413262552591</v>
       </c>
       <c r="F9">
         <v>41.57591019062168</v>
       </c>
       <c r="G9">
-        <v>32.12997117873812</v>
+        <v>32.12997117873813</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>47.60076248588897</v>
+        <v>47.60076248588884</v>
       </c>
       <c r="K9">
-        <v>36.89626021509314</v>
+        <v>36.89626021509306</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.60234081497404</v>
+        <v>18.60234081497403</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.386510856979688</v>
+        <v>3.386510856979645</v>
       </c>
       <c r="E10">
-        <v>5.204995052769418</v>
+        <v>5.204995052769384</v>
       </c>
       <c r="F10">
-        <v>46.43839249784182</v>
+        <v>46.43839249784183</v>
       </c>
       <c r="G10">
-        <v>35.97980853729629</v>
+        <v>35.97980853729628</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>52.21204855987701</v>
+        <v>52.21204855987699</v>
       </c>
       <c r="K10">
-        <v>40.59824521429717</v>
+        <v>40.59824521429714</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.34297772225423</v>
+        <v>19.34297772225418</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.620195754398293</v>
+        <v>3.620195754398297</v>
       </c>
       <c r="E11">
-        <v>5.099245343136158</v>
+        <v>5.099245343136097</v>
       </c>
       <c r="F11">
-        <v>48.65781476715048</v>
+        <v>48.65781476715043</v>
       </c>
       <c r="G11">
-        <v>37.73806761576427</v>
+        <v>37.73806761576424</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>54.24687141404436</v>
+        <v>54.24687141404439</v>
       </c>
       <c r="K11">
-        <v>42.24029414373914</v>
+        <v>42.24029414373923</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.62022975546879</v>
+        <v>19.62022975546877</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.710106207765609</v>
+        <v>3.710106207765675</v>
       </c>
       <c r="E12">
-        <v>5.059766108780479</v>
+        <v>5.059766108780399</v>
       </c>
       <c r="F12">
-        <v>49.50173344808655</v>
+        <v>49.50173344808646</v>
       </c>
       <c r="G12">
-        <v>38.40686257945836</v>
+        <v>38.40686257945832</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>55.00974745347504</v>
+        <v>55.00974745347493</v>
       </c>
       <c r="K12">
-        <v>42.85735733736203</v>
+        <v>42.85735733736198</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.56065379579385</v>
+        <v>19.56065379579384</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>3.690671763208342</v>
       </c>
       <c r="E13">
-        <v>5.068243852137709</v>
+        <v>5.068243852137744</v>
       </c>
       <c r="F13">
-        <v>49.31978062391953</v>
+        <v>49.31978062391965</v>
       </c>
       <c r="G13">
-        <v>38.26265568931684</v>
+        <v>38.26265568931693</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>54.84576414703719</v>
+        <v>54.84576414703712</v>
       </c>
       <c r="K13">
-        <v>42.72464893135798</v>
+        <v>42.7246489313579</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.36584906844844</v>
+        <v>19.36584906844849</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>3.627561634891568</v>
       </c>
       <c r="E14">
-        <v>5.095986146851558</v>
+        <v>5.095986146851418</v>
       </c>
       <c r="F14">
-        <v>48.72715876165666</v>
+        <v>48.7271587616567</v>
       </c>
       <c r="G14">
-        <v>37.79301677956715</v>
+        <v>37.79301677956718</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>54.30977834977605</v>
+        <v>54.30977834977594</v>
       </c>
       <c r="K14">
-        <v>42.29114692355407</v>
+        <v>42.29114692355405</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.24612122055242</v>
+        <v>19.24612122055235</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.589103314515591</v>
+        <v>3.589103314515657</v>
       </c>
       <c r="E15">
-        <v>5.113052155370408</v>
+        <v>5.113052155370444</v>
       </c>
       <c r="F15">
-        <v>48.36469536736136</v>
+        <v>48.36469536736105</v>
       </c>
       <c r="G15">
-        <v>37.50580541723836</v>
+        <v>37.50580541723815</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>53.98051918677263</v>
+        <v>53.98051918677251</v>
       </c>
       <c r="K15">
-        <v>42.0250399300385</v>
+        <v>42.02503993003839</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.55346451384403</v>
+        <v>18.55346451384405</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.37141348101768</v>
+        <v>3.371413481017568</v>
       </c>
       <c r="E16">
-        <v>5.211986378688651</v>
+        <v>5.211986378688523</v>
       </c>
       <c r="F16">
-        <v>46.2936886699534</v>
+        <v>46.29368866995323</v>
       </c>
       <c r="G16">
-        <v>35.86519967326204</v>
+        <v>35.86519967326189</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>52.0779135378224</v>
+        <v>52.07791353782226</v>
       </c>
       <c r="K16">
-        <v>40.49019250579421</v>
+        <v>40.49019250579408</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.12235149044486</v>
+        <v>18.12235149044487</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.239935806430621</v>
+        <v>3.239935806430631</v>
       </c>
       <c r="E17">
-        <v>5.273709285408193</v>
+        <v>5.273709285408249</v>
       </c>
       <c r="F17">
-        <v>45.02661482192528</v>
+        <v>45.02661482192526</v>
       </c>
       <c r="G17">
         <v>34.86177353291556</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>50.89550911539447</v>
+        <v>50.89550911539445</v>
       </c>
       <c r="K17">
-        <v>39.53869051563802</v>
+        <v>39.53869051563798</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.87198284025918</v>
+        <v>17.87198284025916</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.164950016392015</v>
+        <v>3.164950016391964</v>
       </c>
       <c r="E18">
         <v>5.309595321751496</v>
       </c>
       <c r="F18">
-        <v>44.29835206548496</v>
+        <v>44.29835206548518</v>
       </c>
       <c r="G18">
-        <v>34.2851379916203</v>
+        <v>34.28513799162045</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>50.20940571594774</v>
+        <v>50.20940571594769</v>
       </c>
       <c r="K18">
-        <v>38.98736628286683</v>
+        <v>38.98736628286684</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.78678808630455</v>
+        <v>17.78678808630453</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.139659758721443</v>
+        <v>3.139659758721328</v>
       </c>
       <c r="E19">
-        <v>5.321812335325411</v>
+        <v>5.321812335325473</v>
       </c>
       <c r="F19">
-        <v>44.05180194524709</v>
+        <v>44.05180194524714</v>
       </c>
       <c r="G19">
-        <v>34.08993427279722</v>
+        <v>34.08993427279724</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>49.97603260336032</v>
+        <v>49.97603260336027</v>
       </c>
       <c r="K19">
-        <v>38.79996760143654</v>
+        <v>38.7999676014365</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.16849024363885</v>
+        <v>18.16849024363887</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.253863330641722</v>
+        <v>3.253863330641708</v>
       </c>
       <c r="E20">
-        <v>5.267099099757757</v>
+        <v>5.267099099757886</v>
       </c>
       <c r="F20">
         <v>45.16142734589747</v>
       </c>
       <c r="G20">
-        <v>34.96852459910676</v>
+        <v>34.96852459910675</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>51.02199168374437</v>
+        <v>51.02199168374442</v>
       </c>
       <c r="K20">
-        <v>39.640389737155</v>
+        <v>39.64038973715493</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.42315132874341</v>
+        <v>19.42315132874343</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>3.646056385254558</v>
       </c>
       <c r="E21">
-        <v>5.087822378765418</v>
+        <v>5.087822378765523</v>
       </c>
       <c r="F21">
-        <v>48.90110950356477</v>
+        <v>48.90110950356458</v>
       </c>
       <c r="G21">
-        <v>37.93086175685858</v>
+        <v>37.93086175685845</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>54.46740593449992</v>
+        <v>54.46740593449996</v>
       </c>
       <c r="K21">
-        <v>42.41859395093952</v>
+        <v>42.41859395093947</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.22469056858892</v>
+        <v>20.2246905685889</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.910915371005677</v>
+        <v>3.910915371005617</v>
       </c>
       <c r="E22">
-        <v>4.973941066791488</v>
+        <v>4.973941066791475</v>
       </c>
       <c r="F22">
-        <v>51.36707745972699</v>
+        <v>51.36707745972718</v>
       </c>
       <c r="G22">
-        <v>39.88563221422737</v>
+        <v>39.88563221422752</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>56.67537897677887</v>
       </c>
       <c r="K22">
-        <v>44.2074881261202</v>
+        <v>44.20748812612028</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.79842051523065</v>
+        <v>19.7984205152307</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.768612755785727</v>
+        <v>3.768612755785766</v>
       </c>
       <c r="E23">
-        <v>5.034428476455376</v>
+        <v>5.034428476455305</v>
       </c>
       <c r="F23">
-        <v>50.04796577407674</v>
+        <v>50.04796577407663</v>
       </c>
       <c r="G23">
-        <v>38.83981897414981</v>
+        <v>38.83981897414972</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>55.50040864934429</v>
+        <v>55.50040864934422</v>
       </c>
       <c r="K23">
-        <v>43.25466543707635</v>
+        <v>43.25466543707626</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.14763878045967</v>
+        <v>18.14763878045962</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.24756484931007</v>
+        <v>3.247564849310134</v>
       </c>
       <c r="E24">
-        <v>5.270086315111009</v>
+        <v>5.270086315111048</v>
       </c>
       <c r="F24">
-        <v>45.10047816887565</v>
+        <v>45.1004781688756</v>
       </c>
       <c r="G24">
-        <v>34.92026181335746</v>
+        <v>34.92026181335739</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>50.96482870981739</v>
+        <v>50.9648287098173</v>
       </c>
       <c r="K24">
-        <v>39.59442498471581</v>
+        <v>39.59442498471579</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.2740488104689</v>
+        <v>16.27404881046891</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.708984620831046</v>
+        <v>2.708984620831025</v>
       </c>
       <c r="E25">
-        <v>5.539046978529035</v>
+        <v>5.53904697852899</v>
       </c>
       <c r="F25">
-        <v>39.77910235142389</v>
+        <v>39.7791023514237</v>
       </c>
       <c r="G25">
-        <v>30.70778632484851</v>
+        <v>30.70778632484836</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>45.8392047421468</v>
+        <v>45.83920474214679</v>
       </c>
       <c r="K25">
         <v>35.48850825236929</v>

--- a/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.80234106502884</v>
+        <v>14.80181355066153</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.32160065581847</v>
+        <v>2.314525432993246</v>
       </c>
       <c r="E2">
-        <v>5.750445095322589</v>
+        <v>5.746554214315584</v>
       </c>
       <c r="F2">
-        <v>35.81147822602124</v>
+        <v>35.77395058492593</v>
       </c>
       <c r="G2">
-        <v>27.56704509332759</v>
+        <v>27.60238569717367</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.42597625157341</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>41.82536011343741</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>32.29273057348971</v>
+        <v>41.82184752122465</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>32.2903440151239</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.74260381245382</v>
+        <v>13.7422041752156</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.226555493489837</v>
+        <v>2.221075350381292</v>
       </c>
       <c r="E3">
-        <v>5.902355441699725</v>
+        <v>5.899103657725462</v>
       </c>
       <c r="F3">
-        <v>33.07881957696826</v>
+        <v>33.04507592812858</v>
       </c>
       <c r="G3">
-        <v>25.42080357534364</v>
+        <v>25.42957842320698</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>25.45300272078077</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>38.94054362031606</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>30.00511389124582</v>
+        <v>38.93772343640308</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>30.00323469594248</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.05982457917222</v>
+        <v>13.05949694285133</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.280041665827122</v>
+        <v>2.275140756893577</v>
       </c>
       <c r="E4">
-        <v>5.999992270371852</v>
+        <v>5.997148944317788</v>
       </c>
       <c r="F4">
-        <v>31.54161356293998</v>
+        <v>31.50972391443477</v>
       </c>
       <c r="G4">
-        <v>24.30754876574449</v>
+        <v>24.07126377182858</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>24.3384273560661</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>37.08406952502409</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>28.53661445766042</v>
+        <v>37.0816573344266</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>28.53502853477599</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.77333845796765</v>
+        <v>12.77303879195487</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.305234287168339</v>
+        <v>2.300555391072371</v>
       </c>
       <c r="E5">
-        <v>6.040891804025426</v>
+        <v>6.038218842694528</v>
       </c>
       <c r="F5">
-        <v>30.91339949553109</v>
+        <v>30.88227204394187</v>
       </c>
       <c r="G5">
-        <v>23.85554205223549</v>
+        <v>23.53002597138855</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>23.88588897665568</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>36.30561186136156</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>27.92163034015409</v>
+        <v>36.303362983803</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>27.92016041117327</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.72526463490105</v>
+        <v>12.72496953743734</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.309604487734287</v>
+        <v>2.304961623936975</v>
       </c>
       <c r="E6">
-        <v>6.047750714025183</v>
+        <v>6.045106275091776</v>
       </c>
       <c r="F6">
-        <v>30.80898095803231</v>
+        <v>30.77798052233783</v>
       </c>
       <c r="G6">
-        <v>23.78059075036416</v>
+        <v>23.44187706353267</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>23.8108498311658</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>36.17501149080678</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>27.8184993021147</v>
+        <v>36.1727895901042</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>27.81704844987084</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.05599454531449</v>
+        <v>13.05566729144313</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.280368503983155</v>
+        <v>2.275470645493591</v>
       </c>
       <c r="E7">
-        <v>6.000539335065151</v>
+        <v>5.997698290896712</v>
       </c>
       <c r="F7">
-        <v>31.5331483494372</v>
+        <v>31.50126895080795</v>
       </c>
       <c r="G7">
-        <v>24.30144598560059</v>
+        <v>24.06373852771831</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>24.33231737731903</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>37.07366038806719</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>28.52838822115825</v>
+        <v>37.07125041021551</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>28.52680387554375</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.44349291345617</v>
+        <v>14.44301102180821</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.231628190444309</v>
+        <v>2.224728720744956</v>
       </c>
       <c r="E8">
-        <v>5.801926937163563</v>
+        <v>5.798253002984982</v>
       </c>
       <c r="F8">
-        <v>34.87254934189909</v>
+        <v>34.83603484382002</v>
       </c>
       <c r="G8">
-        <v>26.8235300653247</v>
+        <v>26.85796879623626</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>26.71279439413106</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>40.84802688043911</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>31.51690593939779</v>
+        <v>40.84475746813123</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>31.51469880669554</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.91876902667358</v>
+        <v>16.91791669537359</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.888358083234883</v>
+        <v>2.880172201252444</v>
       </c>
       <c r="E9">
-        <v>5.446413262552591</v>
+        <v>5.441240738698158</v>
       </c>
       <c r="F9">
-        <v>41.57591019062168</v>
+        <v>41.53200097450052</v>
       </c>
       <c r="G9">
-        <v>32.12997117873813</v>
+        <v>32.17078186629635</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.83308214528026</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>47.60076248588884</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>36.89626021509306</v>
+        <v>47.59559813396746</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>36.89262757900855</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.60234081497403</v>
+        <v>18.60114637851647</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.386510856979645</v>
+        <v>3.377336156892457</v>
       </c>
       <c r="E10">
-        <v>5.204995052769384</v>
+        <v>5.198817597018382</v>
       </c>
       <c r="F10">
-        <v>46.43839249784183</v>
+        <v>46.38879814533862</v>
       </c>
       <c r="G10">
-        <v>35.97980853729628</v>
+        <v>36.02505999199774</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>35.581734251243</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>52.21204855987699</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>40.59824521429714</v>
+        <v>52.20523344610702</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>40.59333270045444</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.34297772225418</v>
+        <v>19.34160288858486</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.620195754398297</v>
+        <v>3.610549541021987</v>
       </c>
       <c r="E11">
-        <v>5.099245343136097</v>
+        <v>5.092636045192274</v>
       </c>
       <c r="F11">
-        <v>48.65781476715043</v>
+        <v>48.60550134662431</v>
       </c>
       <c r="G11">
-        <v>37.73806761576424</v>
+        <v>37.78526371604373</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>37.30053821211614</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>54.24687141404439</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>42.24029414373923</v>
+        <v>54.2392076075861</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>42.23471384031573</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.62022975546877</v>
+        <v>19.61878189321262</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.710106207765675</v>
+        <v>3.700276816757099</v>
       </c>
       <c r="E12">
-        <v>5.059766108780399</v>
+        <v>5.052997420136928</v>
       </c>
       <c r="F12">
-        <v>49.50173344808646</v>
+        <v>49.4483619017631</v>
       </c>
       <c r="G12">
-        <v>38.40686257945832</v>
+        <v>38.45478125313904</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>37.9552584309014</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>55.00974745347493</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>42.85735733736198</v>
+        <v>55.00174328769562</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>42.85150765836746</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.56065379579384</v>
+        <v>19.55922189398404</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.690671763208342</v>
+        <v>3.680882058336963</v>
       </c>
       <c r="E13">
-        <v>5.068243852137744</v>
+        <v>5.06150929792449</v>
       </c>
       <c r="F13">
-        <v>49.31978062391965</v>
+        <v>49.26663841418716</v>
       </c>
       <c r="G13">
-        <v>38.26265568931693</v>
+        <v>38.3104194196595</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>37.81404544509168</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>54.84576414703712</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>42.7246489313579</v>
+        <v>54.83783422390249</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>42.71885808327778</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.36584906844849</v>
+        <v>19.36446832921379</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.627561634891568</v>
+        <v>3.617900454632687</v>
       </c>
       <c r="E14">
-        <v>5.095986146851418</v>
+        <v>5.089363649538691</v>
       </c>
       <c r="F14">
-        <v>48.7271587616567</v>
+        <v>48.6747589241921</v>
       </c>
       <c r="G14">
-        <v>37.79301677956718</v>
+        <v>37.8402726249616</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>37.35431250539302</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>54.30977834977594</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>42.29114692355405</v>
+        <v>54.30208695611039</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>42.28554481820048</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.24612122055235</v>
+        <v>19.24477116479311</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.589103314515657</v>
+        <v>3.579520203142781</v>
       </c>
       <c r="E15">
-        <v>5.113052155370444</v>
+        <v>5.106498851823062</v>
       </c>
       <c r="F15">
-        <v>48.36469536736105</v>
+        <v>48.31274621451325</v>
       </c>
       <c r="G15">
-        <v>37.50580541723815</v>
+        <v>37.55274825889561</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>37.07327941391497</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>53.98051918677251</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>42.02503993003839</v>
+        <v>53.9729712543202</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>42.01955113806356</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.55346451384405</v>
+        <v>18.55228127808376</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.371413481017568</v>
+        <v>3.362269041587596</v>
       </c>
       <c r="E16">
-        <v>5.211986378688523</v>
+        <v>5.205837694290842</v>
       </c>
       <c r="F16">
-        <v>46.29368866995323</v>
+        <v>46.24426860849859</v>
       </c>
       <c r="G16">
-        <v>35.86519967326189</v>
+        <v>35.91032229484436</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>35.46982917897328</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>52.07791353782226</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>40.49019250579408</v>
+        <v>52.07115153513556</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>40.48532158358412</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.12235149044487</v>
+        <v>18.12126353953819</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.239935806430631</v>
+        <v>3.231054002146216</v>
       </c>
       <c r="E17">
-        <v>5.273709285408249</v>
+        <v>5.267815624837922</v>
       </c>
       <c r="F17">
-        <v>45.02661482192526</v>
+        <v>44.97870648265017</v>
       </c>
       <c r="G17">
-        <v>34.86177353291556</v>
+        <v>34.90575841240516</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>34.49082122098685</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>50.89550911539445</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>39.53869051563798</v>
+        <v>50.88920117766123</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>39.53417413928209</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.87198284025916</v>
+        <v>17.87094745004623</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.164950016391964</v>
+        <v>3.156217345654624</v>
       </c>
       <c r="E18">
-        <v>5.309595321751496</v>
+        <v>5.30385068996519</v>
       </c>
       <c r="F18">
-        <v>44.29835206548518</v>
+        <v>44.25130142809262</v>
       </c>
       <c r="G18">
-        <v>34.28513799162045</v>
+        <v>34.32846159645946</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>33.92885327339759</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>50.20940571594769</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>38.98736628286684</v>
+        <v>50.20335011166491</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>38.9830460933166</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.78678808630453</v>
+        <v>17.7857701360419</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.139659758721328</v>
+        <v>3.130977288979979</v>
       </c>
       <c r="E19">
-        <v>5.321812335325473</v>
+        <v>5.316118551565639</v>
       </c>
       <c r="F19">
-        <v>44.05180194524714</v>
+        <v>44.005039922489</v>
       </c>
       <c r="G19">
-        <v>34.08993427279724</v>
+        <v>34.13303287272899</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>33.7387253022584</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>49.97603260336027</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>38.7999676014365</v>
+        <v>49.97006104371547</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>38.79571261503624</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.16849024363887</v>
+        <v>18.16739238898735</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.253863330641708</v>
+        <v>3.244953777167729</v>
       </c>
       <c r="E20">
-        <v>5.267099099757886</v>
+        <v>5.261178045411636</v>
       </c>
       <c r="F20">
-        <v>45.16142734589747</v>
+        <v>45.11335936088813</v>
       </c>
       <c r="G20">
-        <v>34.96852459910675</v>
+        <v>35.01263132254351</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>34.59490906531196</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>51.02199168374442</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>39.64038973715493</v>
+        <v>51.01563635496079</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>39.63583644583746</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.42315132874343</v>
+        <v>19.42175570098068</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.646056385254558</v>
+        <v>3.63635759441989</v>
       </c>
       <c r="E21">
-        <v>5.087822378765523</v>
+        <v>5.081166850772322</v>
       </c>
       <c r="F21">
-        <v>48.90110950356458</v>
+        <v>48.84849247668087</v>
       </c>
       <c r="G21">
-        <v>37.93086175685845</v>
+        <v>37.97826718549363</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>37.48922494485053</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>54.46740593449996</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>42.41859395093947</v>
+        <v>54.45964504134479</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>42.41293689554868</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.2246905685889</v>
+        <v>20.22307198413324</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.910915371005617</v>
+        <v>3.900672673328045</v>
       </c>
       <c r="E22">
-        <v>4.973941066791475</v>
+        <v>4.966829953817269</v>
       </c>
       <c r="F22">
-        <v>51.36707745972718</v>
+        <v>51.31131447667063</v>
       </c>
       <c r="G22">
-        <v>39.88563221422752</v>
+        <v>39.93511052602186</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>39.40455619534926</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>56.67537897677887</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>44.20748812612028</v>
+        <v>56.6665852435429</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>44.20101043189896</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.7984205152307</v>
+        <v>19.79692401387464</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.768612755785766</v>
+        <v>3.758663571439508</v>
       </c>
       <c r="E23">
-        <v>5.034428476455305</v>
+        <v>5.027558087465457</v>
       </c>
       <c r="F23">
-        <v>50.04796577407663</v>
+        <v>49.99390166517487</v>
       </c>
       <c r="G23">
-        <v>38.83981897414972</v>
+        <v>38.88819989598132</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>38.37935752463154</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>55.50040864934422</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>43.25466543707626</v>
+        <v>55.49217870197884</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>43.24863660575565</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.14763878045962</v>
+        <v>18.14654541012413</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.247564849310134</v>
+        <v>3.238667846928717</v>
       </c>
       <c r="E24">
-        <v>5.270086315111048</v>
+        <v>5.264177638013744</v>
       </c>
       <c r="F24">
-        <v>45.1004781688756</v>
+        <v>45.05248239457312</v>
       </c>
       <c r="G24">
-        <v>34.92026181335739</v>
+        <v>34.96431347327903</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>34.54784835608412</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>50.9648287098173</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>39.59442498471579</v>
+        <v>50.95849483332356</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>39.58988840617316</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.27404881046891</v>
+        <v>16.27330640909915</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.708984620831025</v>
+        <v>2.701151247021411</v>
       </c>
       <c r="E25">
-        <v>5.53904697852899</v>
+        <v>5.534264229071962</v>
       </c>
       <c r="F25">
-        <v>39.7791023514237</v>
+        <v>39.73721698479771</v>
       </c>
       <c r="G25">
-        <v>30.70778632484836</v>
+        <v>30.74690922641209</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.45457522533774</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>45.83920474214679</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>35.48850825236929</v>
+        <v>45.83458710241766</v>
       </c>
       <c r="L25">
+        <v>35.48529263487679</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.80181355066153</v>
+        <v>7.27789103348409</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.314525432993246</v>
+        <v>18.14474527485444</v>
       </c>
       <c r="E2">
-        <v>5.746554214315584</v>
+        <v>14.72646967770218</v>
       </c>
       <c r="F2">
-        <v>35.77395058492593</v>
+        <v>92.41813693635083</v>
       </c>
       <c r="G2">
-        <v>27.60238569717367</v>
+        <v>1.846343147735744</v>
       </c>
       <c r="H2">
-        <v>27.42597625157341</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.11029752302169</v>
       </c>
       <c r="K2">
-        <v>41.82184752122465</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>32.2903440151239</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>51.75202584102237</v>
+      </c>
+      <c r="N2">
+        <v>12.09282961976581</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.7422041752156</v>
+        <v>6.911215159856502</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.221075350381292</v>
+        <v>16.26825950697068</v>
       </c>
       <c r="E3">
-        <v>5.899103657725462</v>
+        <v>13.40066229600775</v>
       </c>
       <c r="F3">
-        <v>33.04507592812858</v>
+        <v>83.65082777834799</v>
       </c>
       <c r="G3">
-        <v>25.42957842320698</v>
+        <v>1.911312568770245</v>
       </c>
       <c r="H3">
-        <v>25.45300272078077</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.141333368946489</v>
       </c>
       <c r="K3">
-        <v>38.93772343640308</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>30.00323469594248</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>46.89545281588848</v>
+      </c>
+      <c r="N3">
+        <v>12.43561323234174</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.05949694285133</v>
+        <v>6.681015669031128</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.275140756893577</v>
+        <v>15.17707681038838</v>
       </c>
       <c r="E4">
-        <v>5.997148944317788</v>
+        <v>12.62723559114699</v>
       </c>
       <c r="F4">
-        <v>31.50972391443477</v>
+        <v>78.74627774170858</v>
       </c>
       <c r="G4">
-        <v>24.07126377182858</v>
+        <v>1.94744990037019</v>
       </c>
       <c r="H4">
-        <v>24.3384273560661</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.162868891695275</v>
       </c>
       <c r="K4">
-        <v>37.0816573344266</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>28.53502853477599</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>44.02054032784088</v>
+      </c>
+      <c r="N4">
+        <v>12.62983347474577</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.77303879195487</v>
+        <v>6.585966648886071</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.300555391072371</v>
+        <v>14.73968812959556</v>
       </c>
       <c r="E5">
-        <v>6.038218842694528</v>
+        <v>12.31677031231981</v>
       </c>
       <c r="F5">
-        <v>30.88227204394187</v>
+        <v>76.881820009405</v>
       </c>
       <c r="G5">
-        <v>23.53002597138855</v>
+        <v>1.961595904345951</v>
       </c>
       <c r="H5">
-        <v>23.88588897665568</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.172131865214102</v>
       </c>
       <c r="K5">
-        <v>36.303362983803</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>27.92016041117327</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>42.85846674655991</v>
+      </c>
+      <c r="N5">
+        <v>12.70671057242168</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.72496953743734</v>
+        <v>6.570110977804079</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.304961623936975</v>
+        <v>14.66733477891929</v>
       </c>
       <c r="E6">
-        <v>6.045106275091776</v>
+        <v>12.2653909972207</v>
       </c>
       <c r="F6">
-        <v>30.77798052233783</v>
+        <v>76.57554790147123</v>
       </c>
       <c r="G6">
-        <v>23.44187706353267</v>
+        <v>1.963917247521554</v>
       </c>
       <c r="H6">
-        <v>23.8108498311658</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.173696847753868</v>
       </c>
       <c r="K6">
-        <v>36.1727895901042</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>27.81704844987084</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>42.66572197154388</v>
+      </c>
+      <c r="N6">
+        <v>12.71937569113638</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.05566729144313</v>
+        <v>6.679738741536573</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.275470645493591</v>
+        <v>15.17115638033455</v>
       </c>
       <c r="E7">
-        <v>5.997698290896712</v>
+        <v>12.62303475625967</v>
       </c>
       <c r="F7">
-        <v>31.50126895080795</v>
+        <v>78.72089616803335</v>
       </c>
       <c r="G7">
-        <v>24.06373852771831</v>
+        <v>1.947642674478725</v>
       </c>
       <c r="H7">
-        <v>24.33231737731903</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.162991965328591</v>
       </c>
       <c r="K7">
-        <v>37.07125041021551</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>28.52680387554375</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>44.00484669618113</v>
+      </c>
+      <c r="N7">
+        <v>12.63087770809623</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.44301102180821</v>
+        <v>7.152506129999223</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.224728720744956</v>
+        <v>17.47860181579395</v>
       </c>
       <c r="E8">
-        <v>5.798253002984982</v>
+        <v>14.25645302133856</v>
       </c>
       <c r="F8">
-        <v>34.83603484382002</v>
+        <v>89.28201209325474</v>
       </c>
       <c r="G8">
-        <v>26.85796879623626</v>
+        <v>1.869815521850356</v>
       </c>
       <c r="H8">
-        <v>26.71279439413106</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.120367752138294</v>
       </c>
       <c r="K8">
-        <v>40.84475746813123</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>31.51469880669554</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>50.04124038079119</v>
+      </c>
+      <c r="N8">
+        <v>12.21586331072154</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.91791669537359</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.880172201252444</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E9">
-        <v>5.441240738698158</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F9">
-        <v>41.53200097450052</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G9">
-        <v>32.17078186629635</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H9">
-        <v>31.83308214528026</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K9">
-        <v>47.59559813396746</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>36.89262757900855</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N9">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.60114637851647</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.377336156892457</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E10">
-        <v>5.198817597018382</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F10">
-        <v>46.38879814533862</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G10">
-        <v>36.02505999199774</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H10">
-        <v>35.581734251243</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K10">
-        <v>52.20523344610702</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>40.59333270045444</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N10">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.34160288858486</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.610549541021987</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E11">
-        <v>5.092636045192274</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F11">
-        <v>48.60550134662431</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G11">
-        <v>37.78526371604373</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H11">
-        <v>37.30053821211614</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K11">
-        <v>54.2392076075861</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>42.23471384031573</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N11">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.61878189321262</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.700276816757099</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E12">
-        <v>5.052997420136928</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F12">
-        <v>49.4483619017631</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G12">
-        <v>38.45478125313904</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H12">
-        <v>37.9552584309014</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K12">
-        <v>55.00174328769562</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>42.85150765836746</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N12">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.55922189398404</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.680882058336963</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E13">
-        <v>5.06150929792449</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F13">
-        <v>49.26663841418716</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G13">
-        <v>38.3104194196595</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H13">
-        <v>37.81404544509168</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K13">
-        <v>54.83783422390249</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>42.71885808327778</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N13">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.36446832921379</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.617900454632687</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E14">
-        <v>5.089363649538691</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F14">
-        <v>48.6747589241921</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G14">
-        <v>37.8402726249616</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H14">
-        <v>37.35431250539302</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K14">
-        <v>54.30208695611039</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>42.28554481820048</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N14">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.24477116479311</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.579520203142781</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E15">
-        <v>5.106498851823062</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F15">
-        <v>48.31274621451325</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G15">
-        <v>37.55274825889561</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H15">
-        <v>37.07327941391497</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K15">
-        <v>53.9729712543202</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>42.01955113806356</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N15">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.55228127808376</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.362269041587596</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E16">
-        <v>5.205837694290842</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F16">
-        <v>46.24426860849859</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G16">
-        <v>35.91032229484436</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H16">
-        <v>35.46982917897328</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K16">
-        <v>52.07115153513556</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>40.48532158358412</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N16">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.12126353953819</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.231054002146216</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E17">
-        <v>5.267815624837922</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F17">
-        <v>44.97870648265017</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G17">
-        <v>34.90575841240516</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H17">
-        <v>34.49082122098685</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K17">
-        <v>50.88920117766123</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>39.53417413928209</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N17">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.87094745004623</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.156217345654624</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E18">
-        <v>5.30385068996519</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F18">
-        <v>44.25130142809262</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G18">
-        <v>34.32846159645946</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H18">
-        <v>33.92885327339759</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K18">
-        <v>50.20335011166491</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>38.9830460933166</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N18">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.7857701360419</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.130977288979979</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E19">
-        <v>5.316118551565639</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F19">
-        <v>44.005039922489</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G19">
-        <v>34.13303287272899</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H19">
-        <v>33.7387253022584</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K19">
-        <v>49.97006104371547</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>38.79571261503624</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N19">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.16739238898735</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.244953777167729</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E20">
-        <v>5.261178045411636</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F20">
-        <v>45.11335936088813</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G20">
-        <v>35.01263132254351</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H20">
-        <v>34.59490906531196</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K20">
-        <v>51.01563635496079</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>39.63583644583746</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N20">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.42175570098068</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.63635759441989</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E21">
-        <v>5.081166850772322</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F21">
-        <v>48.84849247668087</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G21">
-        <v>37.97826718549363</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H21">
-        <v>37.48922494485053</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K21">
-        <v>54.45964504134479</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>42.41293689554868</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N21">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.22307198413324</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.900672673328045</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E22">
-        <v>4.966829953817269</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F22">
-        <v>51.31131447667063</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G22">
-        <v>39.93511052602186</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H22">
-        <v>39.40455619534926</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K22">
-        <v>56.6665852435429</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>44.20101043189896</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N22">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.79692401387464</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.758663571439508</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E23">
-        <v>5.027558087465457</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F23">
-        <v>49.99390166517487</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G23">
-        <v>38.88819989598132</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H23">
-        <v>38.37935752463154</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K23">
-        <v>55.49217870197884</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>43.24863660575565</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N23">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.14654541012413</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.238667846928717</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E24">
-        <v>5.264177638013744</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F24">
-        <v>45.05248239457312</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G24">
-        <v>34.96431347327903</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H24">
-        <v>34.54784835608412</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K24">
-        <v>50.95849483332356</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>39.58988840617316</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N24">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.27330640909915</v>
+        <v>8.046891841782088</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.701151247021411</v>
+        <v>23.6228845507891</v>
       </c>
       <c r="E25">
-        <v>5.534264229071962</v>
+        <v>18.57198235511047</v>
       </c>
       <c r="F25">
-        <v>39.73721698479771</v>
+        <v>118.7287167511303</v>
       </c>
       <c r="G25">
-        <v>30.74690922641209</v>
+        <v>1.636549650580994</v>
       </c>
       <c r="H25">
-        <v>30.45457522533774</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.08097465813731</v>
       </c>
       <c r="K25">
-        <v>45.83458710241766</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>35.48529263487679</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>65.18013106838478</v>
+      </c>
+      <c r="N25">
+        <v>11.01135765481591</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.27789103348409</v>
+        <v>7.260231684917819</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.14474527485444</v>
+        <v>3.783594919770926</v>
       </c>
       <c r="E2">
-        <v>14.72646967770218</v>
+        <v>5.999776413666455</v>
       </c>
       <c r="F2">
-        <v>92.41813693635083</v>
+        <v>41.69170851261887</v>
       </c>
       <c r="G2">
-        <v>1.846343147735744</v>
+        <v>66.0504112319465</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>16.42684906933141</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.11029752302169</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>51.75202584102237</v>
+        <v>32.05290821994792</v>
       </c>
       <c r="N2">
-        <v>12.09282961976581</v>
+        <v>14.83090984685678</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.911215159856502</v>
+        <v>6.902327007390648</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.26825950697068</v>
+        <v>3.51606702755718</v>
       </c>
       <c r="E3">
-        <v>13.40066229600775</v>
+        <v>6.28798088112651</v>
       </c>
       <c r="F3">
-        <v>83.65082777834799</v>
+        <v>38.53582735776428</v>
       </c>
       <c r="G3">
-        <v>1.911312568770245</v>
+        <v>61.02275627356875</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>15.18349298820143</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.141333368946489</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>46.89545281588848</v>
+        <v>29.85073270499531</v>
       </c>
       <c r="N3">
-        <v>12.43561323234174</v>
+        <v>14.59720968556931</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.681015669031128</v>
+        <v>6.675940775552338</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.17707681038838</v>
+        <v>3.347755821288493</v>
       </c>
       <c r="E4">
-        <v>12.62723559114699</v>
+        <v>6.467724631337181</v>
       </c>
       <c r="F4">
-        <v>78.74627774170858</v>
+        <v>36.52670218888869</v>
       </c>
       <c r="G4">
-        <v>1.94744990037019</v>
+        <v>57.82251024464971</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14.3929526278375</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.162868891695275</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>44.02054032784088</v>
+        <v>28.43371313663056</v>
       </c>
       <c r="N4">
-        <v>12.62983347474577</v>
+        <v>14.45650624103523</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.585966648886071</v>
+        <v>6.582146546800629</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.73968812959556</v>
+        <v>3.278060248420734</v>
       </c>
       <c r="E5">
-        <v>12.31677031231981</v>
+        <v>6.541776713949808</v>
       </c>
       <c r="F5">
-        <v>76.881820009405</v>
+        <v>35.68937570984377</v>
       </c>
       <c r="G5">
-        <v>1.961595904345951</v>
+        <v>56.48883285286309</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14.063739795151</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.172131865214102</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>42.85846674655991</v>
+        <v>27.83959914986229</v>
       </c>
       <c r="N5">
-        <v>12.70671057242168</v>
+        <v>14.39992991671954</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.570110977804079</v>
+        <v>6.566483212779876</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.66733477891929</v>
+        <v>3.266418139020481</v>
       </c>
       <c r="E6">
-        <v>12.2653909972207</v>
+        <v>6.554124488779729</v>
       </c>
       <c r="F6">
-        <v>76.57554790147123</v>
+        <v>35.54919927109432</v>
       </c>
       <c r="G6">
-        <v>1.963917247521554</v>
+        <v>56.2655644139493</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>14.00864175292536</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.173696847753868</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>42.66572197154388</v>
+        <v>27.73993098030609</v>
       </c>
       <c r="N6">
-        <v>12.71937569113638</v>
+        <v>14.39058319504179</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.679738741536573</v>
+        <v>6.674681885308143</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.17115638033455</v>
+        <v>3.346820473533854</v>
       </c>
       <c r="E7">
-        <v>12.62303475625967</v>
+        <v>6.468719933323042</v>
       </c>
       <c r="F7">
-        <v>78.72089616803335</v>
+        <v>36.51548573583961</v>
       </c>
       <c r="G7">
-        <v>1.947642674478725</v>
+        <v>57.80464472917372</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>14.38854161943227</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.162991965328591</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>44.00484669618113</v>
+        <v>28.42576862193338</v>
       </c>
       <c r="N7">
-        <v>12.63087770809623</v>
+        <v>14.45574007084644</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.152506129999223</v>
+        <v>7.138272604390457</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.47860181579395</v>
+        <v>3.692132655569758</v>
       </c>
       <c r="E8">
-        <v>14.25645302133856</v>
+        <v>6.098637867176702</v>
       </c>
       <c r="F8">
-        <v>89.28201209325474</v>
+        <v>40.61795455747214</v>
       </c>
       <c r="G8">
-        <v>1.869815521850356</v>
+        <v>64.33966726114096</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>16.00360326236763</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.120367752138294</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>50.04124038079119</v>
+        <v>31.30683296439388</v>
       </c>
       <c r="N8">
-        <v>12.21586331072154</v>
+        <v>14.74978725196786</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.046891841782088</v>
+        <v>7.9901762834505</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>23.6228845507891</v>
+        <v>4.342130340958076</v>
       </c>
       <c r="E9">
-        <v>18.57198235511047</v>
+        <v>5.389613782164437</v>
       </c>
       <c r="F9">
-        <v>118.7287167511303</v>
+        <v>48.13269363441761</v>
       </c>
       <c r="G9">
-        <v>1.636549650580994</v>
+        <v>76.316737259775</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>18.96980312446181</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65.18013106838478</v>
+        <v>36.46093858299374</v>
       </c>
       <c r="N9">
-        <v>11.01135765481591</v>
+        <v>15.34589977588459</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.046891841782088</v>
+        <v>8.620533448759193</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>23.6228845507891</v>
+        <v>4.811749815820776</v>
       </c>
       <c r="E10">
-        <v>18.57198235511047</v>
+        <v>4.870105054168087</v>
       </c>
       <c r="F10">
-        <v>118.7287167511303</v>
+        <v>53.39433708225323</v>
       </c>
       <c r="G10">
-        <v>1.636549650580994</v>
+        <v>84.71060564994201</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>21.05190702038485</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>65.18013106838478</v>
+        <v>39.97782657583583</v>
       </c>
       <c r="N10">
-        <v>11.01135765481591</v>
+        <v>15.79222101481391</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.046891841782088</v>
+        <v>8.928894905830559</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>23.6228845507891</v>
+        <v>5.026215459124852</v>
       </c>
       <c r="E11">
-        <v>18.57198235511047</v>
+        <v>4.631667484920165</v>
       </c>
       <c r="F11">
-        <v>118.7287167511303</v>
+        <v>55.75044748824222</v>
       </c>
       <c r="G11">
-        <v>1.636549650580994</v>
+        <v>88.47193043860437</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>21.98556099118375</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>65.18013106838478</v>
+        <v>41.52841192324829</v>
       </c>
       <c r="N11">
-        <v>11.01135765481591</v>
+        <v>15.99634200692227</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.046891841782088</v>
+        <v>9.043243051891109</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>23.6228845507891</v>
+        <v>5.10782379275191</v>
       </c>
       <c r="E12">
-        <v>18.57198235511047</v>
+        <v>4.540827590534337</v>
       </c>
       <c r="F12">
-        <v>118.7287167511303</v>
+        <v>56.63927730322212</v>
       </c>
       <c r="G12">
-        <v>1.636549650580994</v>
+        <v>89.89133851242789</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>22.33798381356397</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>65.18013106838478</v>
+        <v>42.10947283199946</v>
       </c>
       <c r="N12">
-        <v>11.01135765481591</v>
+        <v>16.07373259038876</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.046891841782088</v>
+        <v>9.018723245442656</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>23.6228845507891</v>
+        <v>5.090225322198157</v>
       </c>
       <c r="E13">
-        <v>18.57198235511047</v>
+        <v>4.560420405940664</v>
       </c>
       <c r="F13">
-        <v>118.7287167511303</v>
+        <v>56.44796519491416</v>
       </c>
       <c r="G13">
-        <v>1.636549650580994</v>
+        <v>89.5858020911913</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>22.26211862500548</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>65.18013106838478</v>
+        <v>41.98458497691354</v>
       </c>
       <c r="N13">
-        <v>11.01135765481591</v>
+        <v>16.05706192940311</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.046891841782088</v>
+        <v>8.938350718564745</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>23.6228845507891</v>
+        <v>5.032919701497504</v>
       </c>
       <c r="E14">
-        <v>18.57198235511047</v>
+        <v>4.624206602356754</v>
       </c>
       <c r="F14">
-        <v>118.7287167511303</v>
+        <v>55.8236266146715</v>
       </c>
       <c r="G14">
-        <v>1.636549650580994</v>
+        <v>88.58878316577346</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>22.01457238987436</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>65.18013106838478</v>
+        <v>41.57633230713731</v>
       </c>
       <c r="N14">
-        <v>11.01135765481591</v>
+        <v>16.00270743892088</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.046891841782088</v>
+        <v>8.888805946286386</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>23.6228845507891</v>
+        <v>4.997879052930758</v>
       </c>
       <c r="E15">
-        <v>18.57198235511047</v>
+        <v>4.663197951654462</v>
       </c>
       <c r="F15">
-        <v>118.7287167511303</v>
+        <v>55.44082862497272</v>
       </c>
       <c r="G15">
-        <v>1.636549650580994</v>
+        <v>87.97754930411267</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>21.86282305644371</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>65.18013106838478</v>
+        <v>41.32550229902029</v>
       </c>
       <c r="N15">
-        <v>11.01135765481591</v>
+        <v>15.96942420337652</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.046891841782088</v>
+        <v>8.600040454394502</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>23.6228845507891</v>
+        <v>4.797772828928958</v>
       </c>
       <c r="E16">
-        <v>18.57198235511047</v>
+        <v>4.885625097699281</v>
       </c>
       <c r="F16">
-        <v>118.7287167511303</v>
+        <v>53.23976776449003</v>
       </c>
       <c r="G16">
-        <v>1.636549650580994</v>
+        <v>84.46390990275465</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>20.99068392411938</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>65.18013106838478</v>
+        <v>39.87557923577492</v>
       </c>
       <c r="N16">
-        <v>11.01135765481591</v>
+        <v>15.77889780152292</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.046891841782088</v>
+        <v>8.41854055134865</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>23.6228845507891</v>
+        <v>4.675404058081755</v>
       </c>
       <c r="E17">
-        <v>18.57198235511047</v>
+        <v>5.021375672047124</v>
       </c>
       <c r="F17">
-        <v>118.7287167511303</v>
+        <v>51.88119135525009</v>
       </c>
       <c r="G17">
-        <v>1.636549650580994</v>
+        <v>82.29590146007961</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>20.45271690471907</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>65.18013106838478</v>
+        <v>38.97410898327586</v>
       </c>
       <c r="N17">
-        <v>11.01135765481591</v>
+        <v>15.66225027151389</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.046891841782088</v>
+        <v>8.322021855312043</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>23.6228845507891</v>
+        <v>4.605079509841484</v>
       </c>
       <c r="E18">
-        <v>18.57198235511047</v>
+        <v>5.099274224071825</v>
       </c>
       <c r="F18">
-        <v>118.7287167511303</v>
+        <v>51.09610727728619</v>
       </c>
       <c r="G18">
-        <v>1.636549650580994</v>
+        <v>81.04331281541204</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>20.14196333087641</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>65.18013106838478</v>
+        <v>38.45090120578377</v>
       </c>
       <c r="N18">
-        <v>11.01135765481591</v>
+        <v>15.5952636915131</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.046891841782088</v>
+        <v>8.292342963959118</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>23.6228845507891</v>
+        <v>4.581271534837242</v>
       </c>
       <c r="E19">
-        <v>18.57198235511047</v>
+        <v>5.125624903365258</v>
       </c>
       <c r="F19">
-        <v>118.7287167511303</v>
+        <v>50.82960744253815</v>
       </c>
       <c r="G19">
-        <v>1.636549650580994</v>
+        <v>80.61815610169307</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>20.03649741764158</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>65.18013106838478</v>
+        <v>38.27291746857104</v>
       </c>
       <c r="N19">
-        <v>11.01135765481591</v>
+        <v>15.57260328581734</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.046891841782088</v>
+        <v>8.438027940903691</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>23.6228845507891</v>
+        <v>4.68842255228564</v>
       </c>
       <c r="E20">
-        <v>18.57198235511047</v>
+        <v>5.00694521891592</v>
       </c>
       <c r="F20">
-        <v>118.7287167511303</v>
+        <v>52.02618051884904</v>
       </c>
       <c r="G20">
-        <v>1.636549650580994</v>
+        <v>82.52724851512905</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>20.51011668316483</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>65.18013106838478</v>
+        <v>39.0705526937116</v>
       </c>
       <c r="N20">
-        <v>11.01135765481591</v>
+        <v>15.67465708018969</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.046891841782088</v>
+        <v>8.962023506480856</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>23.6228845507891</v>
+        <v>5.049738514848744</v>
       </c>
       <c r="E21">
-        <v>18.57198235511047</v>
+        <v>4.605488131533553</v>
       </c>
       <c r="F21">
-        <v>118.7287167511303</v>
+        <v>56.00708338357661</v>
       </c>
       <c r="G21">
-        <v>1.636549650580994</v>
+        <v>88.88173548661324</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>22.08730602966917</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>65.18013106838478</v>
+        <v>41.69640306609857</v>
       </c>
       <c r="N21">
-        <v>11.01135765481591</v>
+        <v>16.01867060093966</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.046891841782088</v>
+        <v>9.290388289194199</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>23.6228845507891</v>
+        <v>5.288360236782562</v>
       </c>
       <c r="E22">
-        <v>18.57198235511047</v>
+        <v>4.339764051956652</v>
       </c>
       <c r="F22">
-        <v>118.7287167511303</v>
+        <v>58.59043548372578</v>
       </c>
       <c r="G22">
-        <v>1.636549650580994</v>
+        <v>93.00817377193636</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>23.11201833782135</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>65.18013106838478</v>
+        <v>43.37754282962569</v>
       </c>
       <c r="N22">
-        <v>11.01135765481591</v>
+        <v>16.24402478227426</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.046891841782088</v>
+        <v>9.116411260603478</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>23.6228845507891</v>
+        <v>5.160667183485787</v>
       </c>
       <c r="E23">
-        <v>18.57198235511047</v>
+        <v>4.481986296506686</v>
       </c>
       <c r="F23">
-        <v>118.7287167511303</v>
+        <v>57.2125448582251</v>
       </c>
       <c r="G23">
-        <v>1.636549650580994</v>
+        <v>90.80695450560302</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>22.56534552689462</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>65.18013106838478</v>
+        <v>42.48310869790884</v>
       </c>
       <c r="N23">
-        <v>11.01135765481591</v>
+        <v>16.12372174491843</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.046891841782088</v>
+        <v>8.429222857536859</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>23.6228845507891</v>
+        <v>4.682536827165093</v>
       </c>
       <c r="E24">
-        <v>18.57198235511047</v>
+        <v>5.013469664449046</v>
       </c>
       <c r="F24">
-        <v>118.7287167511303</v>
+        <v>51.96064358578071</v>
       </c>
       <c r="G24">
-        <v>1.636549650580994</v>
+        <v>82.42267597283012</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>20.48417087807427</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>65.18013106838478</v>
+        <v>39.02696595129117</v>
       </c>
       <c r="N24">
-        <v>11.01135765481591</v>
+        <v>15.66904772169669</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.046891841782088</v>
+        <v>7.766401418992229</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>23.6228845507891</v>
+        <v>4.168410779138646</v>
       </c>
       <c r="E25">
-        <v>18.57198235511047</v>
+        <v>5.580461317773477</v>
       </c>
       <c r="F25">
-        <v>118.7287167511303</v>
+        <v>46.15071591279756</v>
       </c>
       <c r="G25">
-        <v>1.636549650580994</v>
+        <v>73.15674127141514</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>18.18658950289583</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.08097465813731</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>65.18013106838478</v>
+        <v>35.11669201088764</v>
       </c>
       <c r="N25">
-        <v>11.01135765481591</v>
+        <v>15.1829150045322</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.260231684917819</v>
+        <v>7.773726052723036</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.783594919770926</v>
+        <v>3.229918762227883</v>
       </c>
       <c r="E2">
-        <v>5.999776413666455</v>
+        <v>10.85449565201054</v>
       </c>
       <c r="F2">
-        <v>41.69170851261887</v>
+        <v>27.32259848452737</v>
       </c>
       <c r="G2">
-        <v>66.0504112319465</v>
+        <v>38.37620787344353</v>
       </c>
       <c r="H2">
-        <v>16.42684906933141</v>
+        <v>13.91355051060317</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>32.05290821994792</v>
+        <v>19.29931131823499</v>
       </c>
       <c r="N2">
-        <v>14.83090984685678</v>
+        <v>17.30400529927183</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.902327007390648</v>
+        <v>7.699769585378305</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.51606702755718</v>
+        <v>3.217610194302631</v>
       </c>
       <c r="E3">
-        <v>6.28798088112651</v>
+        <v>10.95388439539627</v>
       </c>
       <c r="F3">
-        <v>38.53582735776428</v>
+        <v>26.36821196932372</v>
       </c>
       <c r="G3">
-        <v>61.02275627356875</v>
+        <v>36.44911460145707</v>
       </c>
       <c r="H3">
-        <v>15.18349298820143</v>
+        <v>13.70211742965484</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>29.85073270499531</v>
+        <v>18.45188709384038</v>
       </c>
       <c r="N3">
-        <v>14.59720968556931</v>
+        <v>17.26266740747192</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.675940775552338</v>
+        <v>7.65580617498127</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.347755821288493</v>
+        <v>3.211470150608485</v>
       </c>
       <c r="E4">
-        <v>6.467724631337181</v>
+        <v>11.01793081773803</v>
       </c>
       <c r="F4">
-        <v>36.52670218888869</v>
+        <v>25.77620538914855</v>
       </c>
       <c r="G4">
-        <v>57.82251024464971</v>
+        <v>35.22847362765715</v>
       </c>
       <c r="H4">
-        <v>14.3929526278375</v>
+        <v>13.57606642251865</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.43371313663056</v>
+        <v>17.91451140887566</v>
       </c>
       <c r="N4">
-        <v>14.45650624103523</v>
+        <v>17.23980560046354</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.582146546800629</v>
+        <v>7.638274756851349</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.278060248420734</v>
+        <v>3.209323052025934</v>
       </c>
       <c r="E5">
-        <v>6.541776713949808</v>
+        <v>11.0447934376487</v>
       </c>
       <c r="F5">
-        <v>35.68937570984377</v>
+        <v>25.53388664156654</v>
       </c>
       <c r="G5">
-        <v>56.48883285286309</v>
+        <v>34.72241638740584</v>
       </c>
       <c r="H5">
-        <v>14.063739795151</v>
+        <v>13.52571201964763</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.83959914986229</v>
+        <v>17.69155044316827</v>
       </c>
       <c r="N5">
-        <v>14.39992991671954</v>
+        <v>17.23113123132711</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.566483212779876</v>
+        <v>7.635387454430822</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.266418139020481</v>
+        <v>3.208987916862917</v>
       </c>
       <c r="E6">
-        <v>6.554124488779729</v>
+        <v>11.04930015029949</v>
       </c>
       <c r="F6">
-        <v>35.54919927109432</v>
+        <v>25.49359856675179</v>
       </c>
       <c r="G6">
-        <v>56.2655644139493</v>
+        <v>34.63788911269963</v>
       </c>
       <c r="H6">
-        <v>14.00864175292536</v>
+        <v>13.51741368993776</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>27.73993098030609</v>
+        <v>17.65429774929389</v>
       </c>
       <c r="N6">
-        <v>14.39058319504179</v>
+        <v>17.22972987062609</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.674681885308143</v>
+        <v>7.655568158807616</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.346820473533854</v>
+        <v>3.2114397589402</v>
       </c>
       <c r="E7">
-        <v>6.468719933323042</v>
+        <v>11.0182900017394</v>
       </c>
       <c r="F7">
-        <v>36.51548573583961</v>
+        <v>25.77294112675085</v>
       </c>
       <c r="G7">
-        <v>57.80464472917372</v>
+        <v>35.22168262945369</v>
       </c>
       <c r="H7">
-        <v>14.38854161943227</v>
+        <v>13.57538314289476</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28.42576862193338</v>
+        <v>17.91152013479003</v>
       </c>
       <c r="N7">
-        <v>14.45574007084644</v>
+        <v>17.23968600467914</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.138272604390457</v>
+        <v>7.747938144797139</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.692132655569758</v>
+        <v>3.225379908084616</v>
       </c>
       <c r="E8">
-        <v>6.098637867176702</v>
+        <v>10.88813989565872</v>
       </c>
       <c r="F8">
-        <v>40.61795455747214</v>
+        <v>26.99502717524225</v>
       </c>
       <c r="G8">
-        <v>64.33966726114096</v>
+        <v>37.71993346052442</v>
       </c>
       <c r="H8">
-        <v>16.00360326236763</v>
+        <v>13.83990537445398</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>31.30683296439388</v>
+        <v>19.01083369296762</v>
       </c>
       <c r="N8">
-        <v>14.74978725196786</v>
+        <v>17.28923414937545</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.9901762834505</v>
+        <v>7.939624014049664</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.342130340958076</v>
+        <v>3.26399729697104</v>
       </c>
       <c r="E9">
-        <v>5.389613782164437</v>
+        <v>10.65673097279664</v>
       </c>
       <c r="F9">
-        <v>48.13269363441761</v>
+        <v>29.32621113141824</v>
       </c>
       <c r="G9">
-        <v>76.316737259775</v>
+        <v>42.29410216595762</v>
       </c>
       <c r="H9">
-        <v>18.96980312446181</v>
+        <v>14.38560804881461</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>36.46093858299374</v>
+        <v>21.01956363572681</v>
       </c>
       <c r="N9">
-        <v>15.34589977588459</v>
+        <v>17.40600716059572</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.620533448759193</v>
+        <v>8.085612679638324</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.811749815820776</v>
+        <v>3.299251211636756</v>
       </c>
       <c r="E10">
-        <v>4.870105054168087</v>
+        <v>10.50101102537828</v>
       </c>
       <c r="F10">
-        <v>53.39433708225323</v>
+        <v>30.97794355530005</v>
       </c>
       <c r="G10">
-        <v>84.71060564994201</v>
+        <v>45.42582351448262</v>
       </c>
       <c r="H10">
-        <v>21.05190702038485</v>
+        <v>14.7989628869554</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>39.97782657583583</v>
+        <v>22.3926124619051</v>
       </c>
       <c r="N10">
-        <v>15.79222101481391</v>
+        <v>17.50321596352093</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.928894905830559</v>
+        <v>8.152870062141595</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.026215459124852</v>
+        <v>3.331426226037686</v>
       </c>
       <c r="E11">
-        <v>4.631667484920165</v>
+        <v>10.43322635527094</v>
       </c>
       <c r="F11">
-        <v>55.75044748824222</v>
+        <v>31.7123434070001</v>
       </c>
       <c r="G11">
-        <v>88.47193043860437</v>
+        <v>46.79597674902132</v>
       </c>
       <c r="H11">
-        <v>21.98556099118375</v>
+        <v>14.9888489031292</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>41.52841192324829</v>
+        <v>22.99279631955855</v>
       </c>
       <c r="N11">
-        <v>15.99634200692227</v>
+        <v>17.54979497354602</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.043243051891109</v>
+        <v>8.178437153016974</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.10782379275191</v>
+        <v>3.355453717100469</v>
       </c>
       <c r="E12">
-        <v>4.540827590534337</v>
+        <v>10.40799335911325</v>
       </c>
       <c r="F12">
-        <v>56.63927730322212</v>
+        <v>31.98773081461442</v>
       </c>
       <c r="G12">
-        <v>89.89133851242789</v>
+        <v>47.30667104756485</v>
       </c>
       <c r="H12">
-        <v>22.33798381356397</v>
+        <v>15.06094899093316</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>42.10947283199946</v>
+        <v>23.21641600497285</v>
       </c>
       <c r="N12">
-        <v>16.07373259038876</v>
+        <v>17.56776139477675</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.018723245442656</v>
+        <v>8.172926829097879</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.090225322198157</v>
+        <v>3.350295205885344</v>
       </c>
       <c r="E13">
-        <v>4.560420405940664</v>
+        <v>10.4134084184197</v>
       </c>
       <c r="F13">
-        <v>56.44796519491416</v>
+        <v>31.92854590226108</v>
       </c>
       <c r="G13">
-        <v>89.5858020911913</v>
+        <v>47.19705096252505</v>
       </c>
       <c r="H13">
-        <v>22.26211862500548</v>
+        <v>15.04541342281846</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.98458497691354</v>
+        <v>23.16842020911741</v>
       </c>
       <c r="N13">
-        <v>16.05706192940311</v>
+        <v>17.56387759931358</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.938350718564745</v>
+        <v>8.154971648708047</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.032919701497504</v>
+        <v>3.33341029080885</v>
       </c>
       <c r="E14">
-        <v>4.624206602356754</v>
+        <v>10.43114171146295</v>
       </c>
       <c r="F14">
-        <v>55.8236266146715</v>
+        <v>31.73505552958859</v>
       </c>
       <c r="G14">
-        <v>88.58878316577346</v>
+        <v>46.83815689434114</v>
       </c>
       <c r="H14">
-        <v>22.01457238987436</v>
+        <v>14.99477712889079</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>41.57633230713731</v>
+        <v>23.01126768341198</v>
       </c>
       <c r="N14">
-        <v>16.00270743892088</v>
+        <v>17.55126657402592</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.888805946286386</v>
+        <v>8.143985672118381</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.997879052930758</v>
+        <v>3.32302034836781</v>
       </c>
       <c r="E15">
-        <v>4.663197951654462</v>
+        <v>10.44206048930841</v>
       </c>
       <c r="F15">
-        <v>55.44082862497272</v>
+        <v>31.61617613536437</v>
       </c>
       <c r="G15">
-        <v>87.97754930411267</v>
+        <v>46.61725368891234</v>
       </c>
       <c r="H15">
-        <v>21.86282305644371</v>
+        <v>14.96378415577902</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>41.32550229902029</v>
+        <v>22.91452708182083</v>
       </c>
       <c r="N15">
-        <v>15.96942420337652</v>
+        <v>17.54358433063172</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.600040454394502</v>
+        <v>8.081232269048323</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.797772828928958</v>
+        <v>3.298135900937261</v>
       </c>
       <c r="E16">
-        <v>4.885625097699281</v>
+        <v>10.50550205504354</v>
       </c>
       <c r="F16">
-        <v>53.23976776449003</v>
+        <v>30.92958310534992</v>
       </c>
       <c r="G16">
-        <v>84.46390990275465</v>
+        <v>45.3351558827819</v>
       </c>
       <c r="H16">
-        <v>20.99068392411938</v>
+        <v>14.78658444683272</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>39.87557923577492</v>
+        <v>22.35288465420948</v>
       </c>
       <c r="N16">
-        <v>15.77889780152292</v>
+        <v>17.50021842375544</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.41854055134865</v>
+        <v>8.042935097681069</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.675404058081755</v>
+        <v>3.288527236950203</v>
       </c>
       <c r="E17">
-        <v>5.021375672047124</v>
+        <v>10.54520092735451</v>
       </c>
       <c r="F17">
-        <v>51.88119135525009</v>
+        <v>30.50382738959005</v>
       </c>
       <c r="G17">
-        <v>82.29590146007961</v>
+        <v>44.53443055579642</v>
       </c>
       <c r="H17">
-        <v>20.45271690471907</v>
+        <v>14.67830036875361</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>38.97410898327586</v>
+        <v>22.00196918617873</v>
       </c>
       <c r="N17">
-        <v>15.66225027151389</v>
+        <v>17.47421101742254</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.322021855312043</v>
+        <v>8.020988650515662</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.605079509841484</v>
+        <v>3.28314034847426</v>
       </c>
       <c r="E18">
-        <v>5.099274224071825</v>
+        <v>10.56832224915518</v>
       </c>
       <c r="F18">
-        <v>51.09610727728619</v>
+        <v>30.25735973383091</v>
       </c>
       <c r="G18">
-        <v>81.04331281541204</v>
+        <v>44.06876135025603</v>
       </c>
       <c r="H18">
-        <v>20.14196333087641</v>
+        <v>14.61619645190364</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>38.45090120578377</v>
+        <v>21.79784013636036</v>
       </c>
       <c r="N18">
-        <v>15.5952636915131</v>
+        <v>17.45947490265145</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.292342963959118</v>
+        <v>8.013572603771969</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.581271534837242</v>
+        <v>3.281340496897868</v>
       </c>
       <c r="E19">
-        <v>5.125624903365258</v>
+        <v>10.57620022843673</v>
       </c>
       <c r="F19">
-        <v>50.82960744253815</v>
+        <v>30.17364674215251</v>
       </c>
       <c r="G19">
-        <v>80.61815610169307</v>
+        <v>43.91022624117641</v>
       </c>
       <c r="H19">
-        <v>20.03649741764158</v>
+        <v>14.59520194480194</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>38.27291746857104</v>
+        <v>21.72833674274569</v>
       </c>
       <c r="N19">
-        <v>15.57260328581734</v>
+        <v>17.45452408334116</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.438027940903691</v>
+        <v>8.047003677077717</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.68842255228564</v>
+        <v>3.289535643757433</v>
       </c>
       <c r="E20">
-        <v>5.00694521891592</v>
+        <v>10.54094517608986</v>
       </c>
       <c r="F20">
-        <v>52.02618051884904</v>
+        <v>30.54931584578891</v>
       </c>
       <c r="G20">
-        <v>82.52724851512905</v>
+        <v>44.6202008204185</v>
       </c>
       <c r="H20">
-        <v>20.51011668316483</v>
+        <v>14.68980947130236</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>39.0705526937116</v>
+        <v>22.03956304908913</v>
       </c>
       <c r="N20">
-        <v>15.67465708018969</v>
+        <v>17.47695658576031</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.962023506480856</v>
+        <v>8.160243042688977</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.049738514848744</v>
+        <v>3.338379698192915</v>
       </c>
       <c r="E21">
-        <v>4.605488131533553</v>
+        <v>10.42592121923824</v>
       </c>
       <c r="F21">
-        <v>56.00708338357661</v>
+        <v>31.7919640058358</v>
       </c>
       <c r="G21">
-        <v>88.88173548661324</v>
+        <v>46.94379630497381</v>
       </c>
       <c r="H21">
-        <v>22.08730602966917</v>
+        <v>15.00964552222715</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>41.69640306609857</v>
+        <v>23.05752747733077</v>
       </c>
       <c r="N21">
-        <v>16.01867060093966</v>
+        <v>17.55496192754454</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.290388289194199</v>
+        <v>8.234812993339558</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.288360236782562</v>
+        <v>3.407632754068791</v>
       </c>
       <c r="E22">
-        <v>4.339764051956652</v>
+        <v>10.35328374262822</v>
       </c>
       <c r="F22">
-        <v>58.59043548372578</v>
+        <v>32.58818374093756</v>
       </c>
       <c r="G22">
-        <v>93.00817377193636</v>
+        <v>48.4147695470712</v>
       </c>
       <c r="H22">
-        <v>23.11201833782135</v>
+        <v>15.21977793046083</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>43.37754282962569</v>
+        <v>23.70145932136301</v>
       </c>
       <c r="N22">
-        <v>16.24402478227426</v>
+        <v>17.60784914112065</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.116411260603478</v>
+        <v>8.194969963266729</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.160667183485787</v>
+        <v>3.370866913201756</v>
       </c>
       <c r="E23">
-        <v>4.481986296506686</v>
+        <v>10.39182070684568</v>
       </c>
       <c r="F23">
-        <v>57.2125448582251</v>
+        <v>32.16476492662208</v>
       </c>
       <c r="G23">
-        <v>90.80695450560302</v>
+        <v>47.63413237992894</v>
       </c>
       <c r="H23">
-        <v>22.56534552689462</v>
+        <v>15.10754873506805</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>42.48310869790884</v>
+        <v>23.35977785218243</v>
       </c>
       <c r="N23">
-        <v>16.12372174491843</v>
+        <v>17.57945158709864</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.429222857536859</v>
+        <v>8.045164049064688</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.682536827165093</v>
+        <v>3.289079315357258</v>
       </c>
       <c r="E24">
-        <v>5.013469664449046</v>
+        <v>10.54286827304898</v>
       </c>
       <c r="F24">
-        <v>51.96064358578071</v>
+        <v>30.52875577338337</v>
       </c>
       <c r="G24">
-        <v>82.42267597283012</v>
+        <v>44.58144063446223</v>
       </c>
       <c r="H24">
-        <v>20.48417087807427</v>
+        <v>14.68460573325155</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>39.02696595129117</v>
+        <v>22.02257427516943</v>
       </c>
       <c r="N24">
-        <v>15.66904772169669</v>
+        <v>17.47571464102569</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.766401418992229</v>
+        <v>7.886768789509262</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.168410779138646</v>
+        <v>3.252339649641252</v>
       </c>
       <c r="E25">
-        <v>5.580461317773477</v>
+        <v>10.7168065810447</v>
       </c>
       <c r="F25">
-        <v>46.15071591279756</v>
+        <v>28.70487899956651</v>
       </c>
       <c r="G25">
-        <v>73.15674127141514</v>
+        <v>41.09497914901617</v>
       </c>
       <c r="H25">
-        <v>18.18658950289583</v>
+        <v>14.23550574225174</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>35.11669201088764</v>
+        <v>20.49337423980174</v>
       </c>
       <c r="N25">
-        <v>15.1829150045322</v>
+        <v>17.37237168578267</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.773726052723036</v>
+        <v>7.260231684917846</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.229918762227883</v>
+        <v>3.783594919770862</v>
       </c>
       <c r="E2">
-        <v>10.85449565201054</v>
+        <v>5.999776413666414</v>
       </c>
       <c r="F2">
-        <v>27.32259848452737</v>
+        <v>41.69170851261897</v>
       </c>
       <c r="G2">
-        <v>38.37620787344353</v>
+        <v>66.0504112319466</v>
       </c>
       <c r="H2">
-        <v>13.91355051060317</v>
+        <v>16.42684906933145</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.29931131823499</v>
+        <v>32.05290821994797</v>
       </c>
       <c r="N2">
-        <v>17.30400529927183</v>
+        <v>14.83090984685678</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.699769585378305</v>
+        <v>6.902327007390634</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.217610194302631</v>
+        <v>3.516067027557324</v>
       </c>
       <c r="E3">
-        <v>10.95388439539627</v>
+        <v>6.287980881126577</v>
       </c>
       <c r="F3">
-        <v>26.36821196932372</v>
+        <v>38.53582735776428</v>
       </c>
       <c r="G3">
-        <v>36.44911460145707</v>
+        <v>61.02275627356885</v>
       </c>
       <c r="H3">
-        <v>13.70211742965484</v>
+        <v>15.18349298820146</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.45188709384038</v>
+        <v>29.85073270499529</v>
       </c>
       <c r="N3">
-        <v>17.26266740747192</v>
+        <v>14.59720968556924</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.65580617498127</v>
+        <v>6.675940775552385</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.211470150608485</v>
+        <v>3.347755821288535</v>
       </c>
       <c r="E4">
-        <v>11.01793081773803</v>
+        <v>6.467724631337249</v>
       </c>
       <c r="F4">
-        <v>25.77620538914855</v>
+        <v>36.52670218888866</v>
       </c>
       <c r="G4">
-        <v>35.22847362765715</v>
+        <v>57.82251024464955</v>
       </c>
       <c r="H4">
-        <v>13.57606642251865</v>
+        <v>14.39295262783749</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.91451140887566</v>
+        <v>28.43371313663057</v>
       </c>
       <c r="N4">
-        <v>17.23980560046354</v>
+        <v>14.45650624103527</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.638274756851349</v>
+        <v>6.582146546800613</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.209323052025934</v>
+        <v>3.27806024842071</v>
       </c>
       <c r="E5">
-        <v>11.0447934376487</v>
+        <v>6.541776713949877</v>
       </c>
       <c r="F5">
-        <v>25.53388664156654</v>
+        <v>35.68937570984381</v>
       </c>
       <c r="G5">
-        <v>34.72241638740584</v>
+        <v>56.48883285286319</v>
       </c>
       <c r="H5">
-        <v>13.52571201964763</v>
+        <v>14.06373979515103</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.69155044316827</v>
+        <v>27.83959914986232</v>
       </c>
       <c r="N5">
-        <v>17.23113123132711</v>
+        <v>14.39992991671953</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.635387454430822</v>
+        <v>6.566483212779844</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.208987916862917</v>
+        <v>3.266418139020434</v>
       </c>
       <c r="E6">
-        <v>11.04930015029949</v>
+        <v>6.554124488779663</v>
       </c>
       <c r="F6">
-        <v>25.49359856675179</v>
+        <v>35.54919927109431</v>
       </c>
       <c r="G6">
-        <v>34.63788911269963</v>
+        <v>56.26556441394928</v>
       </c>
       <c r="H6">
-        <v>13.51741368993776</v>
+        <v>14.00864175292534</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.65429774929389</v>
+        <v>27.73993098030608</v>
       </c>
       <c r="N6">
-        <v>17.22972987062609</v>
+        <v>14.39058319504177</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.655568158807616</v>
+        <v>6.674681885308101</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.2114397589402</v>
+        <v>3.346820473533806</v>
       </c>
       <c r="E7">
-        <v>11.0182900017394</v>
+        <v>6.46871993332304</v>
       </c>
       <c r="F7">
-        <v>25.77294112675085</v>
+        <v>36.51548573583958</v>
       </c>
       <c r="G7">
-        <v>35.22168262945369</v>
+        <v>57.80464472917372</v>
       </c>
       <c r="H7">
-        <v>13.57538314289476</v>
+        <v>14.38854161943224</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.91152013479003</v>
+        <v>28.42576862193336</v>
       </c>
       <c r="N7">
-        <v>17.23968600467914</v>
+        <v>14.45574007084646</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.747938144797139</v>
+        <v>7.138272604390471</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.225379908084616</v>
+        <v>3.692132655569866</v>
       </c>
       <c r="E8">
-        <v>10.88813989565872</v>
+        <v>6.098637867176704</v>
       </c>
       <c r="F8">
-        <v>26.99502717524225</v>
+        <v>40.61795455747214</v>
       </c>
       <c r="G8">
-        <v>37.71993346052442</v>
+        <v>64.339667261141</v>
       </c>
       <c r="H8">
-        <v>13.83990537445398</v>
+        <v>16.00360326236764</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.01083369296762</v>
+        <v>31.30683296439392</v>
       </c>
       <c r="N8">
-        <v>17.28923414937545</v>
+        <v>14.74978725196792</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.939624014049664</v>
+        <v>7.99017628345053</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.26399729697104</v>
+        <v>4.342130340958014</v>
       </c>
       <c r="E9">
-        <v>10.65673097279664</v>
+        <v>5.389613782164373</v>
       </c>
       <c r="F9">
-        <v>29.32621113141824</v>
+        <v>48.13269363441756</v>
       </c>
       <c r="G9">
-        <v>42.29410216595762</v>
+        <v>76.3167372597749</v>
       </c>
       <c r="H9">
-        <v>14.38560804881461</v>
+        <v>18.96980312446178</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.01956363572681</v>
+        <v>36.46093858299374</v>
       </c>
       <c r="N9">
-        <v>17.40600716059572</v>
+        <v>15.34589977588461</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.085612679638324</v>
+        <v>8.620533448759193</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.299251211636756</v>
+        <v>4.811749815820737</v>
       </c>
       <c r="E10">
-        <v>10.50101102537828</v>
+        <v>4.87010505416819</v>
       </c>
       <c r="F10">
-        <v>30.97794355530005</v>
+        <v>53.39433708225323</v>
       </c>
       <c r="G10">
-        <v>45.42582351448262</v>
+        <v>84.710605649942</v>
       </c>
       <c r="H10">
-        <v>14.7989628869554</v>
+        <v>21.05190702038485</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.3926124619051</v>
+        <v>39.97782657583581</v>
       </c>
       <c r="N10">
-        <v>17.50321596352093</v>
+        <v>15.79222101481393</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.152870062141595</v>
+        <v>8.928894905830546</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.331426226037686</v>
+        <v>5.026215459124842</v>
       </c>
       <c r="E11">
-        <v>10.43322635527094</v>
+        <v>4.631667484920329</v>
       </c>
       <c r="F11">
-        <v>31.7123434070001</v>
+        <v>55.75044748824244</v>
       </c>
       <c r="G11">
-        <v>46.79597674902132</v>
+        <v>88.47193043860467</v>
       </c>
       <c r="H11">
-        <v>14.9888489031292</v>
+        <v>21.98556099118387</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.99279631955855</v>
+        <v>41.52841192324842</v>
       </c>
       <c r="N11">
-        <v>17.54979497354602</v>
+        <v>15.99634200692229</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.178437153016974</v>
+        <v>9.043243051891105</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.355453717100469</v>
+        <v>5.10782379275196</v>
       </c>
       <c r="E12">
-        <v>10.40799335911325</v>
+        <v>4.540827590534267</v>
       </c>
       <c r="F12">
-        <v>31.98773081461442</v>
+        <v>56.6392773032222</v>
       </c>
       <c r="G12">
-        <v>47.30667104756485</v>
+        <v>89.89133851242794</v>
       </c>
       <c r="H12">
-        <v>15.06094899093316</v>
+        <v>22.33798381356405</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.21641600497285</v>
+        <v>42.10947283199948</v>
       </c>
       <c r="N12">
-        <v>17.56776139477675</v>
+        <v>16.07373259038869</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.172926829097879</v>
+        <v>9.01872324544264</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.350295205885344</v>
+        <v>5.090225322198217</v>
       </c>
       <c r="E13">
-        <v>10.4134084184197</v>
+        <v>4.560420405940692</v>
       </c>
       <c r="F13">
-        <v>31.92854590226108</v>
+        <v>56.44796519491408</v>
       </c>
       <c r="G13">
-        <v>47.19705096252505</v>
+        <v>89.58580209119128</v>
       </c>
       <c r="H13">
-        <v>15.04541342281846</v>
+        <v>22.26211862500544</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.16842020911741</v>
+        <v>41.98458497691352</v>
       </c>
       <c r="N13">
-        <v>17.56387759931358</v>
+        <v>16.05706192940313</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.154971648708047</v>
+        <v>8.938350718564729</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.33341029080885</v>
+        <v>5.03291970149747</v>
       </c>
       <c r="E14">
-        <v>10.43114171146295</v>
+        <v>4.624206602356824</v>
       </c>
       <c r="F14">
-        <v>31.73505552958859</v>
+        <v>55.82362661467162</v>
       </c>
       <c r="G14">
-        <v>46.83815689434114</v>
+        <v>88.58878316577371</v>
       </c>
       <c r="H14">
-        <v>14.99477712889079</v>
+        <v>22.01457238987437</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.01126768341198</v>
+        <v>41.57633230713739</v>
       </c>
       <c r="N14">
-        <v>17.55126657402592</v>
+        <v>16.00270743892097</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.143985672118381</v>
+        <v>8.888805946286478</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.32302034836781</v>
+        <v>4.997879052930745</v>
       </c>
       <c r="E15">
-        <v>10.44206048930841</v>
+        <v>4.663197951654462</v>
       </c>
       <c r="F15">
-        <v>31.61617613536437</v>
+        <v>55.4408286249728</v>
       </c>
       <c r="G15">
-        <v>46.61725368891234</v>
+        <v>87.97754930411276</v>
       </c>
       <c r="H15">
-        <v>14.96378415577902</v>
+        <v>21.86282305644375</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.91452708182083</v>
+        <v>41.32550229902034</v>
       </c>
       <c r="N15">
-        <v>17.54358433063172</v>
+        <v>15.96942420337654</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.081232269048323</v>
+        <v>8.600040454394534</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.298135900937261</v>
+        <v>4.797772828928908</v>
       </c>
       <c r="E16">
-        <v>10.50550205504354</v>
+        <v>4.885625097699318</v>
       </c>
       <c r="F16">
-        <v>30.92958310534992</v>
+        <v>53.23976776448996</v>
       </c>
       <c r="G16">
-        <v>45.3351558827819</v>
+        <v>84.46390990275454</v>
       </c>
       <c r="H16">
-        <v>14.78658444683272</v>
+        <v>20.99068392411932</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.35288465420948</v>
+        <v>39.87557923577489</v>
       </c>
       <c r="N16">
-        <v>17.50021842375544</v>
+        <v>15.778897801523</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.042935097681069</v>
+        <v>8.418540551348544</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.288527236950203</v>
+        <v>4.67540405808175</v>
       </c>
       <c r="E17">
-        <v>10.54520092735451</v>
+        <v>5.021375672047023</v>
       </c>
       <c r="F17">
-        <v>30.50382738959005</v>
+        <v>51.88119135524992</v>
       </c>
       <c r="G17">
-        <v>44.53443055579642</v>
+        <v>82.29590146007942</v>
       </c>
       <c r="H17">
-        <v>14.67830036875361</v>
+        <v>20.452716904719</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.00196918617873</v>
+        <v>38.97410898327578</v>
       </c>
       <c r="N17">
-        <v>17.47421101742254</v>
+        <v>15.66225027151385</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.020988650515662</v>
+        <v>8.322021855312048</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.28314034847426</v>
+        <v>4.605079509841436</v>
       </c>
       <c r="E18">
-        <v>10.56832224915518</v>
+        <v>5.099274224071925</v>
       </c>
       <c r="F18">
-        <v>30.25735973383091</v>
+        <v>51.09610727728617</v>
       </c>
       <c r="G18">
-        <v>44.06876135025603</v>
+        <v>81.04331281541192</v>
       </c>
       <c r="H18">
-        <v>14.61619645190364</v>
+        <v>20.14196333087639</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.79784013636036</v>
+        <v>38.45090120578374</v>
       </c>
       <c r="N18">
-        <v>17.45947490265145</v>
+        <v>15.59526369151316</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.013572603771969</v>
+        <v>8.29234296395912</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.281340496897868</v>
+        <v>4.58127153483712</v>
       </c>
       <c r="E19">
-        <v>10.57620022843673</v>
+        <v>5.125624903365526</v>
       </c>
       <c r="F19">
-        <v>30.17364674215251</v>
+        <v>50.82960744253846</v>
       </c>
       <c r="G19">
-        <v>43.91022624117641</v>
+        <v>80.61815610169354</v>
       </c>
       <c r="H19">
-        <v>14.59520194480194</v>
+        <v>20.03649741764169</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.72833674274569</v>
+        <v>38.27291746857114</v>
       </c>
       <c r="N19">
-        <v>17.45452408334116</v>
+        <v>15.57260328581733</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.047003677077717</v>
+        <v>8.438027940903691</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.289535643757433</v>
+        <v>4.688422552285601</v>
       </c>
       <c r="E20">
-        <v>10.54094517608986</v>
+        <v>5.00694521891606</v>
       </c>
       <c r="F20">
-        <v>30.54931584578891</v>
+        <v>52.02618051884904</v>
       </c>
       <c r="G20">
-        <v>44.6202008204185</v>
+        <v>82.52724851512897</v>
       </c>
       <c r="H20">
-        <v>14.68980947130236</v>
+        <v>20.51011668316484</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.03956304908913</v>
+        <v>39.07055269371158</v>
       </c>
       <c r="N20">
-        <v>17.47695658576031</v>
+        <v>15.67465708018972</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.160243042688977</v>
+        <v>8.962023506480856</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.338379698192915</v>
+        <v>5.049738514848804</v>
       </c>
       <c r="E21">
-        <v>10.42592121923824</v>
+        <v>4.60548813153359</v>
       </c>
       <c r="F21">
-        <v>31.7919640058358</v>
+        <v>56.00708338357679</v>
       </c>
       <c r="G21">
-        <v>46.94379630497381</v>
+        <v>88.88173548661355</v>
       </c>
       <c r="H21">
-        <v>15.00964552222715</v>
+        <v>22.08730602966926</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.05752747733077</v>
+        <v>41.69640306609864</v>
       </c>
       <c r="N21">
-        <v>17.55496192754454</v>
+        <v>16.01867060093968</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.234812993339558</v>
+        <v>9.290388289194246</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.407632754068791</v>
+        <v>5.288360236782507</v>
       </c>
       <c r="E22">
-        <v>10.35328374262822</v>
+        <v>4.339764051956815</v>
       </c>
       <c r="F22">
-        <v>32.58818374093756</v>
+        <v>58.5904354837258</v>
       </c>
       <c r="G22">
-        <v>48.4147695470712</v>
+        <v>93.0081737719364</v>
       </c>
       <c r="H22">
-        <v>15.21977793046083</v>
+        <v>23.11201833782134</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.70145932136301</v>
+        <v>43.3775428296257</v>
       </c>
       <c r="N22">
-        <v>17.60784914112065</v>
+        <v>16.24402478227429</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.194969963266729</v>
+        <v>9.116411260603448</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.370866913201756</v>
+        <v>5.160667183485847</v>
       </c>
       <c r="E23">
-        <v>10.39182070684568</v>
+        <v>4.481986296506685</v>
       </c>
       <c r="F23">
-        <v>32.16476492662208</v>
+        <v>57.21254485822497</v>
       </c>
       <c r="G23">
-        <v>47.63413237992894</v>
+        <v>90.80695450560295</v>
       </c>
       <c r="H23">
-        <v>15.10754873506805</v>
+        <v>22.56534552689456</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.35977785218243</v>
+        <v>42.48310869790883</v>
       </c>
       <c r="N23">
-        <v>17.57945158709864</v>
+        <v>16.12372174491848</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.045164049064688</v>
+        <v>8.429222857536873</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.289079315357258</v>
+        <v>4.682536827164959</v>
       </c>
       <c r="E24">
-        <v>10.54286827304898</v>
+        <v>5.013469664449182</v>
       </c>
       <c r="F24">
-        <v>30.52875577338337</v>
+        <v>51.96064358578085</v>
       </c>
       <c r="G24">
-        <v>44.58144063446223</v>
+        <v>82.42267597283031</v>
       </c>
       <c r="H24">
-        <v>14.68460573325155</v>
+        <v>20.48417087807431</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.02257427516943</v>
+        <v>39.0269659512912</v>
       </c>
       <c r="N24">
-        <v>17.47571464102569</v>
+        <v>15.66904772169669</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.886768789509262</v>
+        <v>7.766401418992221</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.252339649641252</v>
+        <v>4.168410779138675</v>
       </c>
       <c r="E25">
-        <v>10.7168065810447</v>
+        <v>5.580461317773647</v>
       </c>
       <c r="F25">
-        <v>28.70487899956651</v>
+        <v>46.1507159127978</v>
       </c>
       <c r="G25">
-        <v>41.09497914901617</v>
+        <v>73.15674127141558</v>
       </c>
       <c r="H25">
-        <v>14.23550574225174</v>
+        <v>18.18658950289592</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.49337423980174</v>
+        <v>35.11669201088777</v>
       </c>
       <c r="N25">
-        <v>17.37237168578267</v>
+        <v>15.18291500453222</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.260231684917846</v>
+        <v>8.500250901912562</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.783594919770862</v>
+        <v>6.491678083211276</v>
       </c>
       <c r="E2">
-        <v>5.999776413666414</v>
+        <v>10.00619097764594</v>
       </c>
       <c r="F2">
-        <v>41.69170851261897</v>
+        <v>41.9128939302743</v>
       </c>
       <c r="G2">
-        <v>66.0504112319466</v>
+        <v>63.78367302252105</v>
       </c>
       <c r="H2">
-        <v>16.42684906933145</v>
+        <v>3.284521354949319</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.416676955429693</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>16.84479914469029</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.39061561094204</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.052056019725581</v>
       </c>
       <c r="M2">
-        <v>32.05290821994797</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.83090984685678</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>29.1226978336466</v>
+      </c>
+      <c r="P2">
+        <v>14.64726354219414</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.902327007390634</v>
+        <v>7.997467064611638</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.516067027557324</v>
+        <v>6.25942775643585</v>
       </c>
       <c r="E3">
-        <v>6.287980881126577</v>
+        <v>9.684004179771124</v>
       </c>
       <c r="F3">
-        <v>38.53582735776428</v>
+        <v>39.58209193243781</v>
       </c>
       <c r="G3">
-        <v>61.02275627356885</v>
+        <v>59.72674476275406</v>
       </c>
       <c r="H3">
-        <v>15.18349298820146</v>
+        <v>2.853160107137231</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.486712340216753</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>16.03004492205732</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.41452632732749</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.89848630623424</v>
       </c>
       <c r="M3">
-        <v>29.85073270499529</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.59720968556924</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>27.27952645260071</v>
+      </c>
+      <c r="P3">
+        <v>14.45335121746479</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.675940775552385</v>
+        <v>7.66688192296439</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.347755821288535</v>
+        <v>6.114201595786002</v>
       </c>
       <c r="E4">
-        <v>6.467724631337249</v>
+        <v>9.482335491316841</v>
       </c>
       <c r="F4">
-        <v>36.52670218888866</v>
+        <v>38.10697790362416</v>
       </c>
       <c r="G4">
-        <v>57.82251024464955</v>
+        <v>57.13754018576206</v>
       </c>
       <c r="H4">
-        <v>14.39295262783749</v>
+        <v>2.582157719789579</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.531716561273078</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>15.51956949833346</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.43709627696213</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.80211014281861</v>
       </c>
       <c r="M4">
-        <v>28.43371313663057</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.45650624103527</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>26.09042848832838</v>
+      </c>
+      <c r="P4">
+        <v>14.33710278757192</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.582146546800613</v>
+        <v>7.514559649816229</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.27806024842071</v>
+        <v>6.054424917779611</v>
       </c>
       <c r="E5">
-        <v>6.541776713949877</v>
+        <v>9.398888939039093</v>
       </c>
       <c r="F5">
-        <v>35.68937570984381</v>
+        <v>37.49192932446456</v>
       </c>
       <c r="G5">
-        <v>56.48883285286319</v>
+        <v>56.05349086799391</v>
       </c>
       <c r="H5">
-        <v>14.06373979515103</v>
+        <v>2.470117309538424</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.553326851143308</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>15.30810910320171</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.45473677008025</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.761908392509886</v>
       </c>
       <c r="M5">
-        <v>27.83959914986232</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.39992991671953</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>25.59901709931655</v>
+      </c>
+      <c r="P5">
+        <v>14.29501206973141</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.566483212779844</v>
+        <v>7.474072905854545</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.266418139020434</v>
+        <v>6.044578487857168</v>
       </c>
       <c r="E6">
-        <v>6.554124488779663</v>
+        <v>9.384715380184822</v>
       </c>
       <c r="F6">
-        <v>35.54919927109431</v>
+        <v>37.38518218253265</v>
       </c>
       <c r="G6">
-        <v>56.26556441394928</v>
+        <v>55.86649021483162</v>
       </c>
       <c r="H6">
-        <v>14.00864175292534</v>
+        <v>2.451454961353912</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.560475927520561</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>15.27157556086031</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.46579398603417</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.75476026700318</v>
       </c>
       <c r="M6">
-        <v>27.73993098030608</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.39058319504177</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>25.52576175932434</v>
+      </c>
+      <c r="P6">
+        <v>14.29364084728825</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.674681885308101</v>
+        <v>7.625141951646023</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.346820473533806</v>
+        <v>6.113731302034815</v>
       </c>
       <c r="E7">
-        <v>6.46871993332304</v>
+        <v>9.480539712638089</v>
       </c>
       <c r="F7">
-        <v>36.51548573583958</v>
+        <v>38.0880703662061</v>
       </c>
       <c r="G7">
-        <v>57.80464472917372</v>
+        <v>57.10828663183983</v>
       </c>
       <c r="H7">
-        <v>14.38854161943224</v>
+        <v>2.580776607565863</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.541298374489356</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>15.5132914050816</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.4594106594934</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.800390297856153</v>
       </c>
       <c r="M7">
-        <v>28.42576862193336</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.45574007084646</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>26.10837991959348</v>
+      </c>
+      <c r="P7">
+        <v>14.35182021837247</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.138272604390471</v>
+        <v>8.282723272248912</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.692132655569866</v>
+        <v>6.412549492510753</v>
       </c>
       <c r="E8">
-        <v>6.098637867176704</v>
+        <v>9.894984550224303</v>
       </c>
       <c r="F8">
-        <v>40.61795455747214</v>
+        <v>41.10549840914582</v>
       </c>
       <c r="G8">
-        <v>64.339667261141</v>
+        <v>62.38748270920921</v>
       </c>
       <c r="H8">
-        <v>16.00360326236764</v>
+        <v>3.137185421403351</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.451999967896671</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>16.56183694533039</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.42745959445448</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.99800230486428</v>
       </c>
       <c r="M8">
-        <v>31.30683296439392</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.74978725196792</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>28.5289089148295</v>
+      </c>
+      <c r="P8">
+        <v>14.6003370914217</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.99017628345053</v>
+        <v>9.460844052405507</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.342130340958014</v>
+        <v>6.979190068746924</v>
       </c>
       <c r="E9">
-        <v>5.389613782164373</v>
+        <v>10.68301349335866</v>
       </c>
       <c r="F9">
-        <v>48.13269363441756</v>
+        <v>46.67970594107799</v>
       </c>
       <c r="G9">
-        <v>76.3167372597749</v>
+        <v>71.98003877044799</v>
       </c>
       <c r="H9">
-        <v>18.96980312446178</v>
+        <v>4.183990609958959</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.277547690343169</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>18.53693801286066</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.38786772278423</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.373293938974348</v>
       </c>
       <c r="M9">
-        <v>36.46093858299374</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>15.34589977588461</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>32.78126427598048</v>
+      </c>
+      <c r="P9">
+        <v>15.08064633491772</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.620533448759193</v>
+        <v>10.21255453766259</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.811749815820737</v>
+        <v>7.40735624034685</v>
       </c>
       <c r="E10">
-        <v>4.87010505416819</v>
+        <v>11.26710145169525</v>
       </c>
       <c r="F10">
-        <v>53.39433708225323</v>
+        <v>50.24172724195822</v>
       </c>
       <c r="G10">
-        <v>84.710605649942</v>
+        <v>78.13175418400624</v>
       </c>
       <c r="H10">
-        <v>21.05190702038485</v>
+        <v>4.90509713118727</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.165167719069288</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>19.83039819265831</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.43508618655136</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.628094866811007</v>
       </c>
       <c r="M10">
-        <v>39.97782657583581</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>15.79222101481393</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>35.54165927529458</v>
+      </c>
+      <c r="P10">
+        <v>15.47794336596126</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.928894905830546</v>
+        <v>10.57013082655012</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.026215459124842</v>
+        <v>7.781278734959915</v>
       </c>
       <c r="E11">
-        <v>4.631667484920329</v>
+        <v>11.78372991917062</v>
       </c>
       <c r="F11">
-        <v>55.75044748824244</v>
+        <v>49.19379710561416</v>
       </c>
       <c r="G11">
-        <v>88.47193043860467</v>
+        <v>77.21832629249892</v>
       </c>
       <c r="H11">
-        <v>21.98556099118387</v>
+        <v>5.392923072060904</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.14583338755248</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>19.54875650090237</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.7113979384424</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.693327291778821</v>
       </c>
       <c r="M11">
-        <v>41.52841192324842</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>15.99634200692229</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>35.06677052879282</v>
+      </c>
+      <c r="P11">
+        <v>15.91597724339357</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.043243051891105</v>
+        <v>10.7700554637911</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.10782379275196</v>
+        <v>8.021591160565388</v>
       </c>
       <c r="E12">
-        <v>4.540827590534267</v>
+        <v>12.26585594515595</v>
       </c>
       <c r="F12">
-        <v>56.6392773032222</v>
+        <v>47.5507031449111</v>
       </c>
       <c r="G12">
-        <v>89.89133851242794</v>
+        <v>75.15951115905727</v>
       </c>
       <c r="H12">
-        <v>22.33798381356405</v>
+        <v>6.131625293917047</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.136945140925226</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>19.03346308048923</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.90080363120405</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.806765799307142</v>
       </c>
       <c r="M12">
-        <v>42.10947283199948</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>16.07373259038869</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>34.05540558887539</v>
+      </c>
+      <c r="P12">
+        <v>16.18262619715766</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.01872324544264</v>
+        <v>10.82054790251122</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.090225322198217</v>
+        <v>8.175364342689051</v>
       </c>
       <c r="E13">
-        <v>4.560420405940692</v>
+        <v>12.73478043145109</v>
       </c>
       <c r="F13">
-        <v>56.44796519491408</v>
+        <v>45.28665690523566</v>
       </c>
       <c r="G13">
-        <v>89.58580209119128</v>
+        <v>72.00504662201067</v>
       </c>
       <c r="H13">
-        <v>22.26211862500544</v>
+        <v>7.009045161444698</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.149475139774522</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>18.28769125384265</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.06743969175805</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.955664999225645</v>
       </c>
       <c r="M13">
-        <v>41.98458497691352</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>16.05706192940313</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>32.56816475518814</v>
+      </c>
+      <c r="P13">
+        <v>16.35631544203155</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.938350718564729</v>
+        <v>10.78017270780678</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.03291970149747</v>
+        <v>8.246768547964187</v>
       </c>
       <c r="E14">
-        <v>4.624206602356824</v>
+        <v>13.07206423268927</v>
       </c>
       <c r="F14">
-        <v>55.82362661467162</v>
+        <v>43.39084842160804</v>
       </c>
       <c r="G14">
-        <v>88.58878316577371</v>
+        <v>69.25593985708362</v>
       </c>
       <c r="H14">
-        <v>22.01457238987437</v>
+        <v>7.697000595204109</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.170671853559393</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>17.65259884902299</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.18170514065741</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.086450578604332</v>
       </c>
       <c r="M14">
-        <v>41.57633230713739</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>16.00270743892097</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>31.29747002089251</v>
+      </c>
+      <c r="P14">
+        <v>16.4410154007039</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.888805946286478</v>
+        <v>10.72565659036637</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.997879052930745</v>
+        <v>8.244374849421446</v>
       </c>
       <c r="E15">
-        <v>4.663197951654462</v>
+        <v>13.13199255949866</v>
       </c>
       <c r="F15">
-        <v>55.4408286249728</v>
+        <v>42.79026641431501</v>
       </c>
       <c r="G15">
-        <v>87.97754930411276</v>
+        <v>68.34008033560156</v>
       </c>
       <c r="H15">
-        <v>21.86282305644375</v>
+        <v>7.847213773827735</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.184556602883887</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>17.44728714280096</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.21497148464844</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.111541796121239</v>
       </c>
       <c r="M15">
-        <v>41.32550229902034</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>15.96942420337654</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>30.88882166525095</v>
+      </c>
+      <c r="P15">
+        <v>16.44774963253773</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.600040454394534</v>
+        <v>10.39382152867478</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.797772828928908</v>
+        <v>8.037724637941539</v>
       </c>
       <c r="E16">
-        <v>4.885625097699318</v>
+        <v>12.80323776083964</v>
       </c>
       <c r="F16">
-        <v>53.23976776448996</v>
+        <v>41.5977234561687</v>
       </c>
       <c r="G16">
-        <v>84.46390990275454</v>
+        <v>66.16453737412422</v>
       </c>
       <c r="H16">
-        <v>20.99068392411932</v>
+        <v>7.487810262982703</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.235253431713782</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>17.00735082817652</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.16118182231183</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.970797619093926</v>
       </c>
       <c r="M16">
-        <v>39.87557923577489</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>15.778897801523</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29.94073480669515</v>
+      </c>
+      <c r="P16">
+        <v>16.24884342607576</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.418540551348544</v>
+        <v>10.15400484420673</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.67540405808175</v>
+        <v>7.837113234744152</v>
       </c>
       <c r="E17">
-        <v>5.021375672047023</v>
+        <v>12.35047169763692</v>
       </c>
       <c r="F17">
-        <v>51.88119135524992</v>
+        <v>41.72901839402323</v>
       </c>
       <c r="G17">
-        <v>82.29590146007942</v>
+        <v>66.01148949840157</v>
       </c>
       <c r="H17">
-        <v>20.452716904719</v>
+        <v>6.785805658533358</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.263607975292076</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>17.01910923916923</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.06226017755706</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.782673494190438</v>
       </c>
       <c r="M17">
-        <v>38.97410898327578</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>15.66225027151385</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>29.91070388820327</v>
+      </c>
+      <c r="P17">
+        <v>16.0514040882677</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.322021855312048</v>
+        <v>9.999643877734396</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.605079509841436</v>
+        <v>7.624698360201696</v>
       </c>
       <c r="E18">
-        <v>5.099274224071925</v>
+        <v>11.80127095449435</v>
       </c>
       <c r="F18">
-        <v>51.09610727728617</v>
+        <v>43.02307441108398</v>
       </c>
       <c r="G18">
-        <v>81.04331281541192</v>
+        <v>67.60761476306124</v>
       </c>
       <c r="H18">
-        <v>20.14196333087639</v>
+        <v>5.797480292864743</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.266073109035827</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>17.42189648004955</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.89070341099595</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.579743637945653</v>
       </c>
       <c r="M18">
-        <v>38.45090120578374</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>15.59526369151316</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>30.66755686271155</v>
+      </c>
+      <c r="P18">
+        <v>15.82030126696884</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.29234296395912</v>
+        <v>9.869664803227273</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.58127153483712</v>
+        <v>7.43029503093033</v>
       </c>
       <c r="E19">
-        <v>5.125624903365526</v>
+        <v>11.32913101806211</v>
       </c>
       <c r="F19">
-        <v>50.82960744253846</v>
+        <v>45.1116625245612</v>
       </c>
       <c r="G19">
-        <v>80.61815610169354</v>
+        <v>70.43553630575254</v>
       </c>
       <c r="H19">
-        <v>20.03649741764169</v>
+        <v>4.905973526395494</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.265799582035508</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>18.09456409222921</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.72885787872971</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.457062335143205</v>
       </c>
       <c r="M19">
-        <v>38.27291746857114</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>15.57260328581733</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>32.02487243188472</v>
+      </c>
+      <c r="P19">
+        <v>15.61354489535825</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.438027940903691</v>
+        <v>9.926501372018121</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.688422552285601</v>
+        <v>7.297126662458514</v>
       </c>
       <c r="E20">
-        <v>5.00694521891606</v>
+        <v>11.11264755352682</v>
       </c>
       <c r="F20">
-        <v>52.02618051884904</v>
+        <v>49.28019629155681</v>
       </c>
       <c r="G20">
-        <v>82.52724851512897</v>
+        <v>76.49061195252082</v>
       </c>
       <c r="H20">
-        <v>20.51011668316484</v>
+        <v>4.715269516608524</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.223155851959075</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>19.48123187420764</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.49794713529123</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.557321610570776</v>
       </c>
       <c r="M20">
-        <v>39.07055269371158</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>15.67465708018972</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>34.87341072618666</v>
+      </c>
+      <c r="P20">
+        <v>15.42311600325949</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.962023506480856</v>
+        <v>10.47969319658836</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.049738514848804</v>
+        <v>7.593914832155903</v>
       </c>
       <c r="E21">
-        <v>4.60548813153359</v>
+        <v>11.53979810339787</v>
       </c>
       <c r="F21">
-        <v>56.00708338357679</v>
+        <v>52.42249005784971</v>
       </c>
       <c r="G21">
-        <v>88.88173548661355</v>
+        <v>81.7325904376833</v>
       </c>
       <c r="H21">
-        <v>22.08730602966926</v>
+        <v>5.309582830173139</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.131034793125238</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>20.61172455190603</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.49806682108442</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.777000846349992</v>
       </c>
       <c r="M21">
-        <v>41.69640306609864</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>16.01867060093968</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>37.21941048850741</v>
+      </c>
+      <c r="P21">
+        <v>15.67978957552998</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.290388289194246</v>
+        <v>10.86287709981801</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.288360236782507</v>
+        <v>7.797712785686562</v>
       </c>
       <c r="E22">
-        <v>4.339764051956815</v>
+        <v>11.82818673384389</v>
       </c>
       <c r="F22">
-        <v>58.5904354837258</v>
+        <v>54.29015638029085</v>
       </c>
       <c r="G22">
-        <v>93.0081737719364</v>
+        <v>84.88683081908405</v>
       </c>
       <c r="H22">
-        <v>23.11201833782134</v>
+        <v>5.681901038050949</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.061427522657367</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>21.2925840405733</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.48523579941358</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.914473214851434</v>
       </c>
       <c r="M22">
-        <v>43.3775428296257</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>16.24402478227429</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>38.57607356037815</v>
+      </c>
+      <c r="P22">
+        <v>15.84208793615031</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.116411260603448</v>
+        <v>10.69443856740493</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.160667183485847</v>
+        <v>7.688568435297727</v>
       </c>
       <c r="E23">
-        <v>4.481986296506685</v>
+        <v>11.67481243346627</v>
       </c>
       <c r="F23">
-        <v>57.21254485822497</v>
+        <v>53.305806444728</v>
       </c>
       <c r="G23">
-        <v>90.80695450560295</v>
+        <v>83.21729664949741</v>
       </c>
       <c r="H23">
-        <v>22.56534552689456</v>
+        <v>5.482996469709329</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.087264220625694</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>20.93307768595169</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.46167688704215</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.842252494529475</v>
       </c>
       <c r="M23">
-        <v>42.48310869790883</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>16.12372174491848</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>37.83701099457404</v>
+      </c>
+      <c r="P23">
+        <v>15.73696667579293</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.429222857536873</v>
+        <v>9.965175276344086</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.682536827164959</v>
+        <v>7.276090983125518</v>
       </c>
       <c r="E24">
-        <v>5.013469664449182</v>
+        <v>11.09575382394694</v>
       </c>
       <c r="F24">
-        <v>51.96064358578085</v>
+        <v>49.48652509076171</v>
       </c>
       <c r="G24">
-        <v>82.42267597283031</v>
+        <v>76.76110582639994</v>
       </c>
       <c r="H24">
-        <v>20.48417087807431</v>
+        <v>4.728521722136843</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.20562980333216</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>19.54681165716121</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.4351927303397</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.567841304908282</v>
       </c>
       <c r="M24">
-        <v>39.0269659512912</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>15.66904772169669</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>34.96249460688854</v>
+      </c>
+      <c r="P24">
+        <v>15.36983031931928</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.766401418992221</v>
+        <v>9.100723820009758</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.168410779138675</v>
+        <v>6.828137708566216</v>
       </c>
       <c r="E25">
-        <v>5.580461317773647</v>
+        <v>10.47075792776933</v>
       </c>
       <c r="F25">
-        <v>46.1507159127978</v>
+        <v>45.1952519540818</v>
       </c>
       <c r="G25">
-        <v>73.15674127141558</v>
+        <v>69.44692464891119</v>
       </c>
       <c r="H25">
-        <v>18.18658950289592</v>
+        <v>3.905093132030019</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.339263756110677</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>18.00723209047419</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.43472266379406</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.270973310090337</v>
       </c>
       <c r="M25">
-        <v>35.11669201088777</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>15.18291500453222</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>31.71599597249689</v>
+      </c>
+      <c r="P25">
+        <v>14.97698574407124</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.500250901912562</v>
+        <v>9.179390467296903</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.491678083211276</v>
+        <v>6.232011115625673</v>
       </c>
       <c r="E2">
-        <v>10.00619097764594</v>
+        <v>9.681215773124165</v>
       </c>
       <c r="F2">
-        <v>41.9128939302743</v>
+        <v>42.18089702469081</v>
       </c>
       <c r="G2">
-        <v>63.78367302252105</v>
+        <v>63.77011784696294</v>
       </c>
       <c r="H2">
-        <v>3.284521354949319</v>
+        <v>3.13380768415276</v>
       </c>
       <c r="I2">
-        <v>3.416676955429693</v>
+        <v>3.14710010602963</v>
       </c>
       <c r="J2">
-        <v>16.84479914469029</v>
+        <v>17.48953120800518</v>
       </c>
       <c r="K2">
-        <v>14.39061561094204</v>
+        <v>13.45635325577678</v>
       </c>
       <c r="L2">
-        <v>7.052056019725581</v>
+        <v>10.56031992250842</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.331983848765942</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.942835004832985</v>
       </c>
       <c r="O2">
-        <v>29.1226978336466</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.64726354219414</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>28.68282998599241</v>
+      </c>
+      <c r="R2">
+        <v>14.20925675855673</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.997467064611638</v>
+        <v>8.66286093834324</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.25942775643585</v>
+        <v>6.026392488392879</v>
       </c>
       <c r="E3">
-        <v>9.684004179771124</v>
+        <v>9.393491934291397</v>
       </c>
       <c r="F3">
-        <v>39.58209193243781</v>
+        <v>39.87235475714561</v>
       </c>
       <c r="G3">
-        <v>59.72674476275406</v>
+        <v>59.71101148631605</v>
       </c>
       <c r="H3">
-        <v>2.853160107137231</v>
+        <v>2.722886021612877</v>
       </c>
       <c r="I3">
-        <v>3.486712340216753</v>
+        <v>3.20479432359033</v>
       </c>
       <c r="J3">
-        <v>16.03004492205732</v>
+        <v>16.67595214687926</v>
       </c>
       <c r="K3">
-        <v>14.41452632732749</v>
+        <v>13.48776095612875</v>
       </c>
       <c r="L3">
-        <v>6.89848630623424</v>
+        <v>10.50367707186816</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.488915660088427</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.801577027571136</v>
       </c>
       <c r="O3">
-        <v>27.27952645260071</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.45335121746479</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>26.84992844159184</v>
+      </c>
+      <c r="R3">
+        <v>14.02385088112614</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.66688192296439</v>
+        <v>8.321841443977299</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.114201595786002</v>
+        <v>5.89777169882321</v>
       </c>
       <c r="E4">
-        <v>9.482335491316841</v>
+        <v>9.213205683965667</v>
       </c>
       <c r="F4">
-        <v>38.10697790362416</v>
+        <v>38.40824558859526</v>
       </c>
       <c r="G4">
-        <v>57.13754018576206</v>
+        <v>57.12128166230875</v>
       </c>
       <c r="H4">
-        <v>2.582157719789579</v>
+        <v>2.464454573375799</v>
       </c>
       <c r="I4">
-        <v>3.531716561273078</v>
+        <v>3.242228182081682</v>
       </c>
       <c r="J4">
-        <v>15.51956949833346</v>
+        <v>16.16094822119988</v>
       </c>
       <c r="K4">
-        <v>14.43709627696213</v>
+        <v>13.51528861118842</v>
       </c>
       <c r="L4">
-        <v>6.80211014281861</v>
+        <v>10.4904168890036</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.59098604912529</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.712788080000232</v>
       </c>
       <c r="O4">
-        <v>26.09042848832838</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>14.33710278757192</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.66685220006516</v>
+      </c>
+      <c r="R4">
+        <v>13.91359581566341</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.514559649816229</v>
+        <v>8.166007884659187</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.054424917779611</v>
+        <v>5.84483878413725</v>
       </c>
       <c r="E5">
-        <v>9.398888939039093</v>
+        <v>9.138553755841352</v>
       </c>
       <c r="F5">
-        <v>37.49192932446456</v>
+        <v>37.79735019268863</v>
       </c>
       <c r="G5">
-        <v>56.05349086799391</v>
+        <v>56.03769379810155</v>
       </c>
       <c r="H5">
-        <v>2.470117309538424</v>
+        <v>2.357547619144834</v>
       </c>
       <c r="I5">
-        <v>3.553326851143308</v>
+        <v>3.261264434101092</v>
       </c>
       <c r="J5">
-        <v>15.30810910320171</v>
+        <v>15.94644183365729</v>
       </c>
       <c r="K5">
-        <v>14.45473677008025</v>
+        <v>13.53298285173778</v>
       </c>
       <c r="L5">
-        <v>6.761908392509886</v>
+        <v>10.49100834170727</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.640101577883286</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.675716512812209</v>
       </c>
       <c r="O5">
-        <v>25.59901709931655</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>14.29501206973141</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>25.1771013987871</v>
+      </c>
+      <c r="R5">
+        <v>13.87338862721061</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.474072905854545</v>
+        <v>8.126498230588188</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.044578487857168</v>
+        <v>5.836133486065594</v>
       </c>
       <c r="E6">
-        <v>9.384715380184822</v>
+        <v>9.125856487138364</v>
       </c>
       <c r="F6">
-        <v>37.38518218253265</v>
+        <v>37.6916553151416</v>
       </c>
       <c r="G6">
-        <v>55.86649021483162</v>
+        <v>55.85132752261798</v>
       </c>
       <c r="H6">
-        <v>2.451454961353912</v>
+        <v>2.33973125800527</v>
       </c>
       <c r="I6">
-        <v>3.560475927520561</v>
+        <v>3.268660389157314</v>
       </c>
       <c r="J6">
-        <v>15.27157556086031</v>
+        <v>15.90946758753393</v>
       </c>
       <c r="K6">
-        <v>14.46579398603417</v>
+        <v>13.54153841247875</v>
       </c>
       <c r="L6">
-        <v>6.75476026700318</v>
+        <v>10.49221216138456</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.65579877232838</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.66911959529497</v>
       </c>
       <c r="O6">
-        <v>25.52576175932434</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>14.29364084728825</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>25.10320470039686</v>
+      </c>
+      <c r="R6">
+        <v>13.87141540570654</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.625141951646023</v>
+        <v>8.285776461608146</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.113731302034815</v>
+        <v>5.892881954918386</v>
       </c>
       <c r="E7">
-        <v>9.480539712638089</v>
+        <v>9.209913906314968</v>
       </c>
       <c r="F7">
-        <v>38.0880703662061</v>
+        <v>38.34710882596949</v>
       </c>
       <c r="G7">
-        <v>57.10828663183983</v>
+        <v>57.15561048196003</v>
       </c>
       <c r="H7">
-        <v>2.580776607565863</v>
+        <v>2.461391370192323</v>
       </c>
       <c r="I7">
-        <v>3.541298374489356</v>
+        <v>3.253635443200854</v>
       </c>
       <c r="J7">
-        <v>15.5132914050816</v>
+        <v>16.07073268396152</v>
       </c>
       <c r="K7">
-        <v>14.4594106594934</v>
+        <v>13.53176523767949</v>
       </c>
       <c r="L7">
-        <v>6.800390297856153</v>
+        <v>10.49384190217854</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.612665385717198</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.710667348506652</v>
       </c>
       <c r="O7">
-        <v>26.10837991959348</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>14.35182021837247</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.6636586550228</v>
+      </c>
+      <c r="R7">
+        <v>13.92737352974128</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.282723272248912</v>
+        <v>8.967253922533493</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.412549492510753</v>
+        <v>6.147581675089275</v>
       </c>
       <c r="E8">
-        <v>9.894984550224303</v>
+        <v>9.576767414271789</v>
       </c>
       <c r="F8">
-        <v>41.10549840914582</v>
+        <v>41.24790938473096</v>
       </c>
       <c r="G8">
-        <v>62.38748270920921</v>
+        <v>62.56563844976216</v>
       </c>
       <c r="H8">
-        <v>3.137185421403351</v>
+        <v>2.987993664938987</v>
       </c>
       <c r="I8">
-        <v>3.451999967896671</v>
+        <v>3.180707701692388</v>
       </c>
       <c r="J8">
-        <v>16.56183694533039</v>
+        <v>16.94309316645921</v>
       </c>
       <c r="K8">
-        <v>14.42745959445448</v>
+        <v>13.49063661929006</v>
       </c>
       <c r="L8">
-        <v>6.99800230486428</v>
+        <v>10.54663965739211</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.413052908132174</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.891515648096435</v>
       </c>
       <c r="O8">
-        <v>28.5289089148295</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>14.6003370914217</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>28.03205419653143</v>
+      </c>
+      <c r="R8">
+        <v>14.16716344393097</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.460844052405507</v>
+        <v>10.16616395887774</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.979190068746924</v>
+        <v>6.645577213260796</v>
       </c>
       <c r="E9">
-        <v>10.68301349335866</v>
+        <v>10.27829700604221</v>
       </c>
       <c r="F9">
-        <v>46.67970594107799</v>
+        <v>46.72975286835172</v>
       </c>
       <c r="G9">
-        <v>71.98003877044799</v>
+        <v>72.18833031163676</v>
       </c>
       <c r="H9">
-        <v>4.183990609958959</v>
+        <v>3.982179856319759</v>
       </c>
       <c r="I9">
-        <v>3.277547690343169</v>
+        <v>3.035314181833417</v>
       </c>
       <c r="J9">
-        <v>18.53693801286066</v>
+        <v>18.84118791078141</v>
       </c>
       <c r="K9">
-        <v>14.38786772278423</v>
+        <v>13.44350538489367</v>
       </c>
       <c r="L9">
-        <v>7.373293938974348</v>
+        <v>10.80376015027498</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.030270154773969</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.235552128746538</v>
       </c>
       <c r="O9">
-        <v>32.78126427598048</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>15.08064633491772</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>32.25138340864081</v>
+      </c>
+      <c r="R9">
+        <v>14.63476334032173</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.21255453766259</v>
+        <v>10.94036536396736</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.40735624034685</v>
+        <v>7.002136820313748</v>
       </c>
       <c r="E10">
-        <v>11.26710145169525</v>
+        <v>10.78963310592264</v>
       </c>
       <c r="F10">
-        <v>50.24172724195822</v>
+        <v>50.01301278069253</v>
       </c>
       <c r="G10">
-        <v>78.13175418400624</v>
+        <v>78.63922193895088</v>
       </c>
       <c r="H10">
-        <v>4.90509713118727</v>
+        <v>4.65591108465722</v>
       </c>
       <c r="I10">
-        <v>3.165167719069288</v>
+        <v>2.945804464641869</v>
       </c>
       <c r="J10">
-        <v>19.83039819265831</v>
+        <v>19.65222515562121</v>
       </c>
       <c r="K10">
-        <v>14.43508618655136</v>
+        <v>13.48472844263139</v>
       </c>
       <c r="L10">
-        <v>7.628094866811007</v>
+        <v>11.11338652999271</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.803500397055345</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.463576927881581</v>
       </c>
       <c r="O10">
-        <v>35.54165927529458</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>15.47794336596126</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>34.7987577671629</v>
+      </c>
+      <c r="R10">
+        <v>15.03092516142552</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.57013082655012</v>
+        <v>11.36795269273341</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.781278734959915</v>
+        <v>7.311298576653415</v>
       </c>
       <c r="E11">
-        <v>11.78372991917062</v>
+        <v>11.24123512687994</v>
       </c>
       <c r="F11">
-        <v>49.19379710561416</v>
+        <v>48.53229782603629</v>
       </c>
       <c r="G11">
-        <v>77.21832629249892</v>
+        <v>78.36187008512317</v>
       </c>
       <c r="H11">
-        <v>5.392923072060904</v>
+        <v>5.139612730353071</v>
       </c>
       <c r="I11">
-        <v>3.14583338755248</v>
+        <v>2.938342979611869</v>
       </c>
       <c r="J11">
-        <v>19.54875650090237</v>
+        <v>18.48942563976798</v>
       </c>
       <c r="K11">
-        <v>14.7113979384424</v>
+        <v>13.70840953955188</v>
       </c>
       <c r="L11">
-        <v>7.693327291778821</v>
+        <v>11.41639470521512</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.86256591512193</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.503352082371246</v>
       </c>
       <c r="O11">
-        <v>35.06677052879282</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>15.91597724339357</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>34.11750358787168</v>
+      </c>
+      <c r="R11">
+        <v>15.45331682196925</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.7700554637911</v>
+        <v>11.61313775237289</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.021591160565388</v>
+        <v>7.5208658363288</v>
       </c>
       <c r="E12">
-        <v>12.26585594515595</v>
+        <v>11.68396678841035</v>
       </c>
       <c r="F12">
-        <v>47.5507031449111</v>
+        <v>46.70296700378864</v>
       </c>
       <c r="G12">
-        <v>75.15951115905727</v>
+        <v>76.61714027187537</v>
       </c>
       <c r="H12">
-        <v>6.131625293917047</v>
+        <v>5.906966426901857</v>
       </c>
       <c r="I12">
-        <v>3.136945140925226</v>
+        <v>2.931204262217087</v>
       </c>
       <c r="J12">
-        <v>19.03346308048923</v>
+        <v>17.57848269188585</v>
       </c>
       <c r="K12">
-        <v>14.90080363120405</v>
+        <v>13.85685607856591</v>
       </c>
       <c r="L12">
-        <v>7.806765799307142</v>
+        <v>11.58139546391622</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.933208202005757</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.601494194873348</v>
       </c>
       <c r="O12">
-        <v>34.05540558887539</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>16.18262619715766</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>33.00869137041888</v>
+      </c>
+      <c r="R12">
+        <v>15.7037315322788</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.82054790251122</v>
+        <v>11.69677168293947</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.175364342689051</v>
+        <v>7.685397224310011</v>
       </c>
       <c r="E13">
-        <v>12.73478043145109</v>
+        <v>12.15120789175574</v>
       </c>
       <c r="F13">
-        <v>45.28665690523566</v>
+        <v>44.51504898805609</v>
       </c>
       <c r="G13">
-        <v>72.00504662201067</v>
+        <v>73.42198601050004</v>
       </c>
       <c r="H13">
-        <v>7.009045161444698</v>
+        <v>6.826681903760609</v>
       </c>
       <c r="I13">
-        <v>3.149475139774522</v>
+        <v>2.940578659539136</v>
       </c>
       <c r="J13">
-        <v>18.28769125384265</v>
+        <v>16.95520625729969</v>
       </c>
       <c r="K13">
-        <v>15.06743969175805</v>
+        <v>13.97617101132647</v>
       </c>
       <c r="L13">
-        <v>7.955664999225645</v>
+        <v>11.65622877889233</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.039395752506397</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.746009567945604</v>
       </c>
       <c r="O13">
-        <v>32.56816475518814</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>16.35631544203155</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>31.53128912341794</v>
+      </c>
+      <c r="R13">
+        <v>15.85121039059521</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.78017270780678</v>
+        <v>11.67557397994473</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.246768547964187</v>
+        <v>7.785974647005808</v>
       </c>
       <c r="E14">
-        <v>13.07206423268927</v>
+        <v>12.51013250742271</v>
       </c>
       <c r="F14">
-        <v>43.39084842160804</v>
+        <v>42.78795448239385</v>
       </c>
       <c r="G14">
-        <v>69.25593985708362</v>
+        <v>70.48655577865169</v>
       </c>
       <c r="H14">
-        <v>7.697000595204109</v>
+        <v>7.545318491764931</v>
       </c>
       <c r="I14">
-        <v>3.170671853559393</v>
+        <v>2.958021231933591</v>
       </c>
       <c r="J14">
-        <v>17.65259884902299</v>
+        <v>16.63248126581995</v>
       </c>
       <c r="K14">
-        <v>15.18170514065741</v>
+        <v>14.05235923018963</v>
       </c>
       <c r="L14">
-        <v>8.086450578604332</v>
+        <v>11.67091147747552</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.135964065980701</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.879673529489528</v>
       </c>
       <c r="O14">
-        <v>31.29747002089251</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>16.4410154007039</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>30.31337687049805</v>
+      </c>
+      <c r="R14">
+        <v>15.91224452239943</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.72565659036637</v>
+        <v>11.6248530611467</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.244374849421446</v>
+        <v>7.800337051699731</v>
       </c>
       <c r="E15">
-        <v>13.13199255949866</v>
+        <v>12.5848005222761</v>
       </c>
       <c r="F15">
-        <v>42.79026641431501</v>
+        <v>42.27852433427505</v>
       </c>
       <c r="G15">
-        <v>68.34008033560156</v>
+        <v>69.45660715043964</v>
       </c>
       <c r="H15">
-        <v>7.847213773827735</v>
+        <v>7.704571142097892</v>
       </c>
       <c r="I15">
-        <v>3.184556602883887</v>
+        <v>2.970834304923564</v>
       </c>
       <c r="J15">
-        <v>17.44728714280096</v>
+        <v>16.60037297927473</v>
       </c>
       <c r="K15">
-        <v>15.21497148464844</v>
+        <v>14.07310857648963</v>
       </c>
       <c r="L15">
-        <v>8.111541796121239</v>
+        <v>11.66088036615965</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.174591196727999</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.907945731282166</v>
       </c>
       <c r="O15">
-        <v>30.88882166525095</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>16.44774963253773</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>29.93707494191269</v>
+      </c>
+      <c r="R15">
+        <v>15.91055302215834</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.39382152867478</v>
+        <v>11.27337637145785</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.037724637941539</v>
+        <v>7.673653007057581</v>
       </c>
       <c r="E16">
-        <v>12.80323776083964</v>
+        <v>12.33167809433286</v>
       </c>
       <c r="F16">
-        <v>41.5977234561687</v>
+        <v>41.50077249587571</v>
       </c>
       <c r="G16">
-        <v>66.16453737412422</v>
+        <v>66.72922711004355</v>
       </c>
       <c r="H16">
-        <v>7.487810262982703</v>
+        <v>7.364856562623546</v>
       </c>
       <c r="I16">
-        <v>3.235253431713782</v>
+        <v>3.012915948339952</v>
       </c>
       <c r="J16">
-        <v>17.00735082817652</v>
+        <v>16.96444961151595</v>
       </c>
       <c r="K16">
-        <v>15.16118182231183</v>
+        <v>14.01309475127328</v>
       </c>
       <c r="L16">
-        <v>7.970797619093926</v>
+        <v>11.47524872459102</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.251817225654612</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.787969993836833</v>
       </c>
       <c r="O16">
-        <v>29.94073480669515</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>16.24884342607576</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>29.15820641060448</v>
+      </c>
+      <c r="R16">
+        <v>15.69854150350956</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.15400484420673</v>
+        <v>11.00916667957047</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.837113234744152</v>
+        <v>7.50694134869645</v>
       </c>
       <c r="E17">
-        <v>12.35047169763692</v>
+        <v>11.91228174583345</v>
       </c>
       <c r="F17">
-        <v>41.72901839402323</v>
+        <v>41.80687549380869</v>
       </c>
       <c r="G17">
-        <v>66.01148949840157</v>
+        <v>66.32657565318382</v>
       </c>
       <c r="H17">
-        <v>6.785805658533358</v>
+        <v>6.66258777305355</v>
       </c>
       <c r="I17">
-        <v>3.263607975292076</v>
+        <v>3.03685121289019</v>
       </c>
       <c r="J17">
-        <v>17.01910923916923</v>
+        <v>17.31980396630956</v>
       </c>
       <c r="K17">
-        <v>15.06226017755706</v>
+        <v>13.93276324907741</v>
       </c>
       <c r="L17">
-        <v>7.782673494190438</v>
+        <v>11.33404103466534</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.261831028084938</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.611792893985569</v>
       </c>
       <c r="O17">
-        <v>29.91070388820327</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>16.0514040882677</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>29.20918783710603</v>
+      </c>
+      <c r="R17">
+        <v>15.50704299020069</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.999643877734396</v>
+        <v>10.81816482611875</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.624698360201696</v>
+        <v>7.303053322671252</v>
       </c>
       <c r="E18">
-        <v>11.80127095449435</v>
+        <v>11.37355857375908</v>
       </c>
       <c r="F18">
-        <v>43.02307441108398</v>
+        <v>43.16180739191797</v>
       </c>
       <c r="G18">
-        <v>67.60761476306124</v>
+        <v>67.80150660250467</v>
       </c>
       <c r="H18">
-        <v>5.797480292864743</v>
+        <v>5.655579650750241</v>
       </c>
       <c r="I18">
-        <v>3.266073109035827</v>
+        <v>3.035873837669919</v>
       </c>
       <c r="J18">
-        <v>17.42189648004955</v>
+        <v>17.85849310057361</v>
       </c>
       <c r="K18">
-        <v>14.89070341099595</v>
+        <v>13.80437778619249</v>
       </c>
       <c r="L18">
-        <v>7.579743637945653</v>
+        <v>11.19851658255896</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.196458164622548</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.417068611414888</v>
       </c>
       <c r="O18">
-        <v>30.66755686271155</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>15.82030126696884</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>30.04900870151405</v>
+      </c>
+      <c r="R18">
+        <v>15.29660581532691</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.869664803227273</v>
+        <v>10.65016839399089</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.43029503093033</v>
+        <v>7.101251104042518</v>
       </c>
       <c r="E19">
-        <v>11.32913101806211</v>
+        <v>10.89929740597691</v>
       </c>
       <c r="F19">
-        <v>45.1116625245612</v>
+        <v>45.24830844102358</v>
       </c>
       <c r="G19">
-        <v>70.43553630575254</v>
+        <v>70.57971054846558</v>
       </c>
       <c r="H19">
-        <v>4.905973526395494</v>
+        <v>4.728776361008722</v>
       </c>
       <c r="I19">
-        <v>3.265799582035508</v>
+        <v>3.037379304205171</v>
       </c>
       <c r="J19">
-        <v>18.09456409222921</v>
+        <v>18.5549732654048</v>
       </c>
       <c r="K19">
-        <v>14.72885787872971</v>
+        <v>13.68864963998038</v>
       </c>
       <c r="L19">
-        <v>7.457062335143205</v>
+        <v>11.1049801115695</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.111207948221647</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.300467647730518</v>
       </c>
       <c r="O19">
-        <v>32.02487243188472</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>15.61354489535825</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>31.44949171898718</v>
+      </c>
+      <c r="R19">
+        <v>15.11429423687719</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.926501372018121</v>
+        <v>10.65587968643083</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.297126662458514</v>
+        <v>6.924875491103362</v>
       </c>
       <c r="E20">
-        <v>11.11264755352682</v>
+        <v>10.65952429898388</v>
       </c>
       <c r="F20">
-        <v>49.28019629155681</v>
+        <v>49.25198381913925</v>
       </c>
       <c r="G20">
-        <v>76.49061195252082</v>
+        <v>76.75504639506657</v>
       </c>
       <c r="H20">
-        <v>4.715269516608524</v>
+        <v>4.484038121378179</v>
       </c>
       <c r="I20">
-        <v>3.223155851959075</v>
+        <v>3.003514616993935</v>
       </c>
       <c r="J20">
-        <v>19.48123187420764</v>
+        <v>19.68107443478567</v>
       </c>
       <c r="K20">
-        <v>14.49794713529123</v>
+        <v>13.52815061096932</v>
       </c>
       <c r="L20">
-        <v>7.557321610570776</v>
+        <v>11.06525795089746</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.910159802829073</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.401636041721805</v>
       </c>
       <c r="O20">
-        <v>34.87341072618666</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>15.42311600325949</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>34.23946926005728</v>
+      </c>
+      <c r="R20">
+        <v>14.9637576583232</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.47969319658836</v>
+        <v>11.23359716402886</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.593914832155903</v>
+        <v>7.095943943922613</v>
       </c>
       <c r="E21">
-        <v>11.53979810339787</v>
+        <v>11.01045518836969</v>
       </c>
       <c r="F21">
-        <v>52.42249005784971</v>
+        <v>51.53501694613549</v>
       </c>
       <c r="G21">
-        <v>81.7325904376833</v>
+        <v>83.09466558141072</v>
       </c>
       <c r="H21">
-        <v>5.309582830173139</v>
+        <v>5.011537888155673</v>
       </c>
       <c r="I21">
-        <v>3.131034793125238</v>
+        <v>2.930194909571489</v>
       </c>
       <c r="J21">
-        <v>20.61172455190603</v>
+        <v>19.14809902350994</v>
       </c>
       <c r="K21">
-        <v>14.49806682108442</v>
+        <v>13.56084179010428</v>
       </c>
       <c r="L21">
-        <v>7.777000846349992</v>
+        <v>11.32689605836647</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.72858611095938</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.594801105422438</v>
       </c>
       <c r="O21">
-        <v>37.21941048850741</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>15.67978957552998</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>36.20552113500596</v>
+      </c>
+      <c r="R21">
+        <v>15.25784259727151</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.86287709981801</v>
+        <v>11.63139597239757</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.797712785686562</v>
+        <v>7.219526162007829</v>
       </c>
       <c r="E22">
-        <v>11.82818673384389</v>
+        <v>11.25147652290941</v>
       </c>
       <c r="F22">
-        <v>54.29015638029085</v>
+        <v>52.81411190156707</v>
       </c>
       <c r="G22">
-        <v>84.88683081908405</v>
+        <v>87.00151229748167</v>
       </c>
       <c r="H22">
-        <v>5.681901038050949</v>
+        <v>5.339506700812427</v>
       </c>
       <c r="I22">
-        <v>3.061427522657367</v>
+        <v>2.870398678388779</v>
       </c>
       <c r="J22">
-        <v>21.2925840405733</v>
+        <v>18.67760654717323</v>
       </c>
       <c r="K22">
-        <v>14.48523579941358</v>
+        <v>13.57525599890873</v>
       </c>
       <c r="L22">
-        <v>7.914473214851434</v>
+        <v>11.50152770136973</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.602765700298029</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.714804456977243</v>
       </c>
       <c r="O22">
-        <v>38.57607356037815</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>15.84208793615031</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>37.32676052020873</v>
+      </c>
+      <c r="R22">
+        <v>15.44850751882954</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.69443856740493</v>
+        <v>11.44869723768063</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.688568435297727</v>
+        <v>7.161430107720491</v>
       </c>
       <c r="E23">
-        <v>11.67481243346627</v>
+        <v>11.12535254054351</v>
       </c>
       <c r="F23">
-        <v>53.305806444728</v>
+        <v>52.22949108694607</v>
       </c>
       <c r="G23">
-        <v>83.21729664949741</v>
+        <v>84.81871459519834</v>
       </c>
       <c r="H23">
-        <v>5.482996469709329</v>
+        <v>5.167906565082752</v>
       </c>
       <c r="I23">
-        <v>3.087264220625694</v>
+        <v>2.88836447134378</v>
       </c>
       <c r="J23">
-        <v>20.93307768595169</v>
+        <v>19.10821760712454</v>
       </c>
       <c r="K23">
-        <v>14.46167688704215</v>
+        <v>13.53956230815781</v>
       </c>
       <c r="L23">
-        <v>7.842252494529475</v>
+        <v>11.38659373715207</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.648078013546099</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.652538414708096</v>
       </c>
       <c r="O23">
-        <v>37.83701099457404</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>15.73696667579293</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>36.75078727506311</v>
+      </c>
+      <c r="R23">
+        <v>15.32621295607887</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.965175276344086</v>
+        <v>10.68378506187335</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.276090983125518</v>
+        <v>6.903929393668083</v>
       </c>
       <c r="E24">
-        <v>11.09575382394694</v>
+        <v>10.64397685902275</v>
       </c>
       <c r="F24">
-        <v>49.48652509076171</v>
+        <v>49.46183721982939</v>
       </c>
       <c r="G24">
-        <v>76.76110582639994</v>
+        <v>77.01137751366186</v>
       </c>
       <c r="H24">
-        <v>4.728521722136843</v>
+        <v>4.497091264067183</v>
       </c>
       <c r="I24">
-        <v>3.20562980333216</v>
+        <v>2.982170832864636</v>
       </c>
       <c r="J24">
-        <v>19.54681165716121</v>
+        <v>19.75904894286649</v>
       </c>
       <c r="K24">
-        <v>14.4351927303397</v>
+        <v>13.47967292999612</v>
       </c>
       <c r="L24">
-        <v>7.567841304908282</v>
+        <v>11.0280853062285</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.87234061977655</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.413009709784248</v>
       </c>
       <c r="O24">
-        <v>34.96249460688854</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>15.36983031931928</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>34.33666428002962</v>
+      </c>
+      <c r="R24">
+        <v>14.91664207765437</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.100723820009758</v>
+        <v>9.806623269525055</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.828137708566216</v>
+        <v>6.518917319633295</v>
       </c>
       <c r="E25">
-        <v>10.47075792776933</v>
+        <v>10.09156982280313</v>
       </c>
       <c r="F25">
-        <v>45.1952519540818</v>
+        <v>45.32778002535709</v>
       </c>
       <c r="G25">
-        <v>69.44692464891119</v>
+        <v>69.57480563166014</v>
       </c>
       <c r="H25">
-        <v>3.905093132030019</v>
+        <v>3.719878536187558</v>
       </c>
       <c r="I25">
-        <v>3.339263756110677</v>
+        <v>3.092268809725943</v>
       </c>
       <c r="J25">
-        <v>18.00723209047419</v>
+        <v>18.44352577436603</v>
       </c>
       <c r="K25">
-        <v>14.43472266379406</v>
+        <v>13.48035709417385</v>
       </c>
       <c r="L25">
-        <v>7.270973310090337</v>
+        <v>10.73526926865288</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.158924180178248</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.142541612405672</v>
       </c>
       <c r="O25">
-        <v>31.71599597249689</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>14.97698574407124</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>31.2145368514412</v>
+      </c>
+      <c r="R25">
+        <v>14.52771773492679</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
